--- a/data/fakesystem/sys_TSE.xlsx
+++ b/data/fakesystem/sys_TSE.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TSE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="589">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -154,1834 +154,1630 @@
     <t>BYND</t>
   </si>
   <si>
-    <t>P4746KWY3MC946KSC</t>
-  </si>
-  <si>
-    <t>DT1HWZE13XSCFUD2R</t>
-  </si>
-  <si>
-    <t>8ER3T0DV3X9XCSZTG</t>
-  </si>
-  <si>
-    <t>0EY1P0RF6MBLRLK24</t>
-  </si>
-  <si>
-    <t>H4XZDTLH0EMTWEKDB</t>
-  </si>
-  <si>
-    <t>0C6W524U3E3ZL198F</t>
-  </si>
-  <si>
-    <t>BUHPD8M84LL5NZY4T</t>
-  </si>
-  <si>
-    <t>LD7RGC5EXHX6U7TRW</t>
-  </si>
-  <si>
-    <t>X7EE8JYV9MDKXAKX4</t>
-  </si>
-  <si>
-    <t>MHX3KJAL13TYXLSGY</t>
-  </si>
-  <si>
-    <t>HW3RBYXXXHYRRHAXF</t>
-  </si>
-  <si>
-    <t>SM0TM5923A7PME318</t>
-  </si>
-  <si>
-    <t>TR7VK3WJ4SAPGDANZ</t>
-  </si>
-  <si>
-    <t>ZHJGY3SY7RVSMTU88</t>
-  </si>
-  <si>
-    <t>C8191VG82WU3E4GFT</t>
-  </si>
-  <si>
-    <t>HSNENFER8RS0ADZNX</t>
-  </si>
-  <si>
-    <t>S3GZLKY976UK91KWG</t>
-  </si>
-  <si>
-    <t>7W9E115Z5UXNF5HD3</t>
-  </si>
-  <si>
-    <t>202UZNJ738GJ7926J</t>
-  </si>
-  <si>
-    <t>ZZ2G3RUEXMPT019CD</t>
-  </si>
-  <si>
-    <t>7G20B2RH9P1S1J91M</t>
-  </si>
-  <si>
-    <t>AE17UTF37EZAYXTMV</t>
-  </si>
-  <si>
-    <t>WVD7Z50U19X1W3Y5N</t>
-  </si>
-  <si>
-    <t>ATBGKF375PYTTVWVB</t>
-  </si>
-  <si>
-    <t>LYMEW7ES5XK1WE58T</t>
-  </si>
-  <si>
-    <t>X02H21G18CUFVL0SN</t>
-  </si>
-  <si>
-    <t>F2UJLHYA4L99G345U</t>
-  </si>
-  <si>
-    <t>6EEAUBBL2B16K31D7</t>
-  </si>
-  <si>
-    <t>0KN6NAFB1FKUDBFF3</t>
-  </si>
-  <si>
-    <t>M3VP5R26204M6J03B</t>
-  </si>
-  <si>
-    <t>T10J5K477JG4YW8YX</t>
-  </si>
-  <si>
-    <t>JM04FHPL2V2J82H78</t>
-  </si>
-  <si>
-    <t>HHM3D6KW28Z0GL4WH</t>
-  </si>
-  <si>
-    <t>BNMHJKP799AUAXD6S</t>
-  </si>
-  <si>
-    <t>AZ6NTZ0H9D8MZM7WY</t>
-  </si>
-  <si>
-    <t>E2SKRNT118486BK2W</t>
-  </si>
-  <si>
-    <t>EV6JMHFFX55ZVDRHU</t>
-  </si>
-  <si>
-    <t>WMW5M8ZW9NA0MUFN7</t>
-  </si>
-  <si>
-    <t>1TH3TE7S6KJ3VZB1C</t>
-  </si>
-  <si>
-    <t>MKALCD9Z68XL2HRZ8</t>
-  </si>
-  <si>
-    <t>PTZ7PH206J8KFDA4N</t>
-  </si>
-  <si>
-    <t>SF6SRPLD4D4P4WBXK</t>
-  </si>
-  <si>
-    <t>FFNLWNGT61UGB3MH8</t>
-  </si>
-  <si>
-    <t>EYB7S7J69HF9HDZVW</t>
-  </si>
-  <si>
-    <t>FWCSRBFE64RACKLKM</t>
-  </si>
-  <si>
-    <t>61SR0S626W9SWN5T0</t>
-  </si>
-  <si>
-    <t>W69X5HV7178UVVR0A</t>
-  </si>
-  <si>
-    <t>NCJPUMF6XAGWNGM5F</t>
-  </si>
-  <si>
-    <t>AZTVUR6400P8CGCW7</t>
-  </si>
-  <si>
-    <t>96G5K3MP49KUZTC4Y</t>
-  </si>
-  <si>
-    <t>B2B0P9SV2A79FB1X2</t>
-  </si>
-  <si>
-    <t>ELSZP5DU9G2UUT43X</t>
-  </si>
-  <si>
-    <t>ZWAZ72TF5W8PF64J8</t>
-  </si>
-  <si>
-    <t>JTKU7A8P8XCDDYMVY</t>
-  </si>
-  <si>
-    <t>55J4ST1P35JB2GV5H</t>
-  </si>
-  <si>
-    <t>AP7ZZLDL1WZ6NZUF7</t>
-  </si>
-  <si>
-    <t>UGA33AF461SNMFNZ3</t>
-  </si>
-  <si>
-    <t>6F6EFVPK179XXRB33</t>
-  </si>
-  <si>
-    <t>X944CH4R9BK0UB04L</t>
-  </si>
-  <si>
-    <t>KKW56UMK2Y76M9JRT</t>
-  </si>
-  <si>
-    <t>TAMBTPCK578KP886B</t>
-  </si>
-  <si>
-    <t>G3PAXU6T8Y9TN61XP</t>
-  </si>
-  <si>
-    <t>YFJ9PBAD07GT4JVSF</t>
-  </si>
-  <si>
-    <t>48XF4634XGSPYRYED</t>
-  </si>
-  <si>
-    <t>LTLRRW6D9VRDSCNLF</t>
-  </si>
-  <si>
-    <t>LF8BN3TGXGKDCNMWK</t>
-  </si>
-  <si>
-    <t>7L6VX3UZ3G0W9ZXDP</t>
-  </si>
-  <si>
-    <t>M1TFJ5C50VMC7335U</t>
-  </si>
-  <si>
-    <t>0B8DY0T09ZYWXAWM2</t>
-  </si>
-  <si>
-    <t>LCMF8R5W6ZDR5Y1NM</t>
-  </si>
-  <si>
-    <t>VCLCJ9DX4NFL17PBD</t>
-  </si>
-  <si>
-    <t>16PJY2NJ336N87N4D</t>
-  </si>
-  <si>
-    <t>CASEESY16ZTUMM21T</t>
-  </si>
-  <si>
-    <t>4D0ZDU4X7ZBSD3TC5</t>
-  </si>
-  <si>
-    <t>EW5XU99F69CKYRKTK</t>
-  </si>
-  <si>
-    <t>R6DFJHJN6ZSYF4C36</t>
-  </si>
-  <si>
-    <t>VX7TN94TXPSN7D2WL</t>
-  </si>
-  <si>
-    <t>GL4KG3091U0B0W48C</t>
-  </si>
-  <si>
-    <t>F0UBBEAP44J319MBM</t>
-  </si>
-  <si>
-    <t>VL28RBEG1EZA737Z7</t>
-  </si>
-  <si>
-    <t>WSM9ZNYB7V8H1ETCF</t>
-  </si>
-  <si>
-    <t>YGJ80XY24GCP6J513</t>
-  </si>
-  <si>
-    <t>F0KJK13D1SFTHUF3E</t>
-  </si>
-  <si>
-    <t>N7N3WK017DA33L828</t>
-  </si>
-  <si>
-    <t>MB5CJFAK3EM4WHG4V</t>
-  </si>
-  <si>
-    <t>E4ERGYMU0XECWE9XE</t>
-  </si>
-  <si>
-    <t>996EXNZ59DLMMY4RA</t>
-  </si>
-  <si>
-    <t>BDDMZ84M1BGKA7NWW</t>
-  </si>
-  <si>
-    <t>17ALDNPC5MTJGWWS1</t>
-  </si>
-  <si>
-    <t>F814XH490YNF351SU</t>
-  </si>
-  <si>
-    <t>Z7DEXDYL9VLDYSB2A</t>
-  </si>
-  <si>
-    <t>1F9LFJ9Z6XJ70V52E</t>
-  </si>
-  <si>
-    <t>YGEFG9KX32ZWB1J6P</t>
-  </si>
-  <si>
-    <t>3KPB393B61NUZP1RL</t>
-  </si>
-  <si>
-    <t>SKWNPV6H57BDAS2BH</t>
-  </si>
-  <si>
-    <t>7ME07LMS04BHTWVWW</t>
-  </si>
-  <si>
-    <t>09Z45AFH3C49C2X77</t>
-  </si>
-  <si>
-    <t>P0XH92ZM4U4S9K02V</t>
-  </si>
-  <si>
-    <t>FW4H93M46PB8CD9EU</t>
-  </si>
-  <si>
-    <t>C4AFZ9N13T35ZJT4B</t>
-  </si>
-  <si>
-    <t>1496W0BU4G3M8H9FE</t>
-  </si>
-  <si>
-    <t>5ZUNA1FD63WYE2CAY</t>
-  </si>
-  <si>
-    <t>Y3N2BECD4VDS3U496</t>
-  </si>
-  <si>
-    <t>ECX360GA309NN8ALN</t>
-  </si>
-  <si>
-    <t>J95TZLMM6R271X5M9</t>
-  </si>
-  <si>
-    <t>G5DBTDFN1RWE21RLS</t>
-  </si>
-  <si>
-    <t>JTAE7DFE99RRRDW96</t>
-  </si>
-  <si>
-    <t>86JYA8DN49Y7FHZNC</t>
-  </si>
-  <si>
-    <t>EMU6GZFG28FG7BRFZ</t>
-  </si>
-  <si>
-    <t>ZFD8D77E1T79SX8M1</t>
-  </si>
-  <si>
-    <t>PAYYMSA03N7MS3UFF</t>
-  </si>
-  <si>
-    <t>WY828XHV1MX9FYHKW</t>
-  </si>
-  <si>
-    <t>2ANKG6CW9TLJTKZE8</t>
-  </si>
-  <si>
-    <t>R3BK5W479GVV185UA</t>
-  </si>
-  <si>
-    <t>2L58EEHT00FY1BLBB</t>
-  </si>
-  <si>
-    <t>JG3MW8X44JMCM3KLM</t>
-  </si>
-  <si>
-    <t>DA6ND2S83C7H5EUUK</t>
-  </si>
-  <si>
-    <t>C7Z7VDEL1X3TX5MSE</t>
-  </si>
-  <si>
-    <t>UW6N1X4B1DR0GGN9V</t>
-  </si>
-  <si>
-    <t>2T68E6W88L31NKAE0</t>
-  </si>
-  <si>
-    <t>XJF1EB3K8KNSKBLVL</t>
-  </si>
-  <si>
-    <t>WVM3XEMY5H0JJK6U3</t>
-  </si>
-  <si>
-    <t>GFW08PTJ2KKST7B4M</t>
-  </si>
-  <si>
-    <t>WRMFE3R65YLG4GLNM</t>
-  </si>
-  <si>
-    <t>VY38CZ660MT322DX1</t>
-  </si>
-  <si>
-    <t>PJNT8MDW9882192EH</t>
-  </si>
-  <si>
-    <t>TE9XR8542F4691T0R</t>
-  </si>
-  <si>
-    <t>VJT0M7GG3GRKC5YDN</t>
-  </si>
-  <si>
-    <t>D4P2SKU43N1YPWF6A</t>
-  </si>
-  <si>
-    <t>8N0EXTVY1MBRAKL6Z</t>
-  </si>
-  <si>
-    <t>PXA3SPPBXJ9EEPHY1</t>
-  </si>
-  <si>
-    <t>L8P6MZ2M6P1ERHCNJ</t>
-  </si>
-  <si>
-    <t>54PHREAW9W79V6G3B</t>
-  </si>
-  <si>
-    <t>1VS30DYP4EES57SNF</t>
-  </si>
-  <si>
-    <t>ZWDSB65J46SBCJKVV</t>
-  </si>
-  <si>
-    <t>DRPRCRK8XYFEYA0N5</t>
-  </si>
-  <si>
-    <t>BJKD7DC6811ADHRK7</t>
-  </si>
-  <si>
-    <t>CL5JNVVE2L4X986DR</t>
-  </si>
-  <si>
-    <t>6VEV9MHJ8B1Z17U2Z</t>
-  </si>
-  <si>
-    <t>VMMX0RMLXD95ERV8Z</t>
-  </si>
-  <si>
-    <t>PF3CC8N18SDDH0BB0</t>
-  </si>
-  <si>
-    <t>FLV1TMLW3NG3ASYJE</t>
-  </si>
-  <si>
-    <t>8X5FW6AA039NMPXEE</t>
-  </si>
-  <si>
-    <t>5NF9UWUX4MG6VKN8A</t>
-  </si>
-  <si>
-    <t>X0UL37U85JW6FNNYP</t>
-  </si>
-  <si>
-    <t>8KSJE2PP1VUTGHZ9K</t>
-  </si>
-  <si>
-    <t>7L7U851R9J8UNRA63</t>
-  </si>
-  <si>
-    <t>GJFGBY3WXWA87RELT</t>
-  </si>
-  <si>
-    <t>C4B3WVZE8SWK1J3NF</t>
-  </si>
-  <si>
-    <t>85NCMZVX9J4HP3AY0</t>
-  </si>
-  <si>
-    <t>X9KUG6LV8M8EPSWNJ</t>
-  </si>
-  <si>
-    <t>2LRPJ7YJ83YY0PXTD</t>
-  </si>
-  <si>
-    <t>UM02L7AH7ALMSWPKK</t>
-  </si>
-  <si>
-    <t>YSVFY1UV5R2V3B5KL</t>
-  </si>
-  <si>
-    <t>YY56ZR0E5KFCBS2ZM</t>
-  </si>
-  <si>
-    <t>FTXZBWSB8J9N8FNHK</t>
-  </si>
-  <si>
-    <t>MSNY5J5L97ENGW3V0</t>
-  </si>
-  <si>
-    <t>PL3K78E48XF7H2F67</t>
-  </si>
-  <si>
-    <t>GGD2P6AR9L2F27T6E</t>
-  </si>
-  <si>
-    <t>4KNXF1HB1R356F3Z0</t>
-  </si>
-  <si>
-    <t>3GFCUR0F92TSCKKJL</t>
-  </si>
-  <si>
-    <t>XF1Z79JT0LF7H8HAF</t>
-  </si>
-  <si>
-    <t>6RPSLDUM9MT9A6UJX</t>
-  </si>
-  <si>
-    <t>AW4GD8Z98D157NMAS</t>
-  </si>
-  <si>
-    <t>MAVJJ5MM2HCYT0BU6</t>
-  </si>
-  <si>
-    <t>Y75ANE2X9GZ67NDP5</t>
-  </si>
-  <si>
-    <t>HYF7J63735KM6N87T</t>
-  </si>
-  <si>
-    <t>XSW2EVK74JDPPSC6X</t>
-  </si>
-  <si>
-    <t>W333KAW13P3EMKAYX</t>
-  </si>
-  <si>
-    <t>YPSBLLW00KHYJ1P0R</t>
-  </si>
-  <si>
-    <t>MW99A86T3EPM5UTGE</t>
-  </si>
-  <si>
-    <t>GTEY6KY75MHC8KT63</t>
-  </si>
-  <si>
-    <t>9LPZNKYZ0JSW9DJ3Z</t>
-  </si>
-  <si>
-    <t>DXMG3LVK7PXSJB7CS</t>
-  </si>
-  <si>
-    <t>2UHKGWGN29YYDXGBA</t>
-  </si>
-  <si>
-    <t>D3832P3E9YF0LZL6J</t>
-  </si>
-  <si>
-    <t>CCS1ZAZG7B0FM684F</t>
-  </si>
-  <si>
-    <t>AW42G9ZM1MW47VKTK</t>
-  </si>
-  <si>
-    <t>BR0474SZ0CS3UDSXS</t>
-  </si>
-  <si>
-    <t>9TH639ZR5EYM3DKG0</t>
-  </si>
-  <si>
-    <t>XHE4GM483K2NLXEPF</t>
-  </si>
-  <si>
-    <t>6RT3UH7V8AJPF69NL</t>
-  </si>
-  <si>
-    <t>WB3SAGRW15ZX7FCNH</t>
-  </si>
-  <si>
-    <t>7F2D67C61G7JPWM9G</t>
-  </si>
-  <si>
-    <t>CKH2TN4T0RNTJ30ZF</t>
-  </si>
-  <si>
-    <t>H6NTVRBJ9Y4R62LM0</t>
-  </si>
-  <si>
-    <t>VSNUN7190TXDAF6BK</t>
-  </si>
-  <si>
-    <t>1S1MZWXA24CYUSLUV</t>
-  </si>
-  <si>
-    <t>BX488GAZ6G93MPC3J</t>
-  </si>
-  <si>
-    <t>52U2LKG97EURNB24K</t>
-  </si>
-  <si>
-    <t>HH9XGKF54XBBU0X0Y</t>
-  </si>
-  <si>
-    <t>CLTJD8212XAUY183C</t>
-  </si>
-  <si>
-    <t>FMDA00JJ4LBPLT4C6</t>
-  </si>
-  <si>
-    <t>7AAD4CPC6CDJA684E</t>
-  </si>
-  <si>
-    <t>8LNAKGZBX6ULL484D</t>
-  </si>
-  <si>
-    <t>J47WAVXG40BWAE45G</t>
-  </si>
-  <si>
-    <t>U4GBFBMS91Y5UY827</t>
-  </si>
-  <si>
-    <t>635D76P97ECYFJG9W</t>
-  </si>
-  <si>
-    <t>8WSZP53M57HCBEU8W</t>
-  </si>
-  <si>
-    <t>DGH9A7FY9BCKGCZ27</t>
-  </si>
-  <si>
-    <t>F319TVG75ZAZ3W7H3</t>
-  </si>
-  <si>
-    <t>LLPTY1AX9L4E0RZ5L</t>
-  </si>
-  <si>
-    <t>20G4JL8WXZB0HZXZ8</t>
-  </si>
-  <si>
-    <t>X4MLL92303J8DKSKT</t>
-  </si>
-  <si>
-    <t>VN3J7PGE0XCYKUSFT</t>
-  </si>
-  <si>
-    <t>CZXDY8Z75WKJUKB59</t>
-  </si>
-  <si>
-    <t>2NCTAH756YMY3XAK7</t>
-  </si>
-  <si>
-    <t>9XS13KVG2R3V5V3NC</t>
-  </si>
-  <si>
-    <t>RAT4C07Y275D2YG5S</t>
-  </si>
-  <si>
-    <t>6HYSWEEL3ZHTNZYP9</t>
-  </si>
-  <si>
-    <t>9LUZXLX25VYY1FKH6</t>
-  </si>
-  <si>
-    <t>15R176HS7YPFFATJB</t>
-  </si>
-  <si>
-    <t>P8ZMDVF83MSHL9YWW</t>
-  </si>
-  <si>
-    <t>YG4G3FG64HGMM4TRT</t>
-  </si>
-  <si>
-    <t>3YHNBNF08W729HKPA</t>
-  </si>
-  <si>
-    <t>71SG84HV8LVG2P8NR</t>
-  </si>
-  <si>
-    <t>8CCRELD64LL2GUPLA</t>
-  </si>
-  <si>
-    <t>USKLUJB24XAYTDD0B</t>
-  </si>
-  <si>
-    <t>8Z1R10EH66B9HGV47</t>
-  </si>
-  <si>
-    <t>Z1DRBNJNXPU7GBMW4</t>
-  </si>
-  <si>
-    <t>FVKKE2DU5ANSUUBT5</t>
-  </si>
-  <si>
-    <t>1E7KJ6YM8KXKF2P4A</t>
-  </si>
-  <si>
-    <t>3RZ97TL25UVXH1R64</t>
-  </si>
-  <si>
-    <t>M5W3VEM65V4UK10YW</t>
-  </si>
-  <si>
-    <t>JANEHDWM8YXGNDG8P</t>
-  </si>
-  <si>
-    <t>TTDWT1X774TDWA16V</t>
-  </si>
-  <si>
-    <t>MGJST3703C19ZAUAP</t>
-  </si>
-  <si>
-    <t>7RWJ87LN1H34BS25P</t>
-  </si>
-  <si>
-    <t>S04KTG7R0W5YCM2L2</t>
-  </si>
-  <si>
-    <t>1LERHW078CJU747G3</t>
-  </si>
-  <si>
-    <t>W2CYAFXA3A10ZBYRY</t>
-  </si>
-  <si>
-    <t>5WR2C9ZJX7W2GS78U</t>
-  </si>
-  <si>
-    <t>0GKM0TJ235F7G271R</t>
-  </si>
-  <si>
-    <t>5S2NURFB69SFWX74D</t>
-  </si>
-  <si>
-    <t>TX7PPJ4V3HKK783WW</t>
-  </si>
-  <si>
-    <t>YHA7AABW61ELPC7FD</t>
-  </si>
-  <si>
-    <t>U3SGKD2W309VCLZJ7</t>
-  </si>
-  <si>
-    <t>HAMCWZGB8BKUSJAC9</t>
-  </si>
-  <si>
-    <t>58F9HJMZ1LU5KMBE2</t>
-  </si>
-  <si>
-    <t>64XGEBEW2VZSM1E7P</t>
-  </si>
-  <si>
-    <t>DUSVJKJX6ZWJNU30X</t>
-  </si>
-  <si>
-    <t>SA6JEYAK34FX6BARK</t>
-  </si>
-  <si>
-    <t>FXCA9TPP6FVHPUV4U</t>
-  </si>
-  <si>
-    <t>PU8NUTZ82UZGN1HFU</t>
-  </si>
-  <si>
-    <t>05GESM4G6PN9XYL1Y</t>
-  </si>
-  <si>
-    <t>9V6FV6F74E32HMM6V</t>
-  </si>
-  <si>
-    <t>NPFXKLHK50EN8XSJ4</t>
-  </si>
-  <si>
-    <t>3S2PC4TW625VGX1DU</t>
-  </si>
-  <si>
-    <t>WM37UGK75FX0NFT8V</t>
-  </si>
-  <si>
-    <t>E0X1NBRC40JAG2U7X</t>
-  </si>
-  <si>
-    <t>3MZ3RR7U43C5904TM</t>
-  </si>
-  <si>
-    <t>FTR23BAS7FX267L3X</t>
-  </si>
-  <si>
-    <t>LDL1VGNN2V3JUATP9</t>
-  </si>
-  <si>
-    <t>AWDP12WA4NKJ8GT1Y</t>
-  </si>
-  <si>
-    <t>KNEN0WK58FVBMWEFK</t>
-  </si>
-  <si>
-    <t>ECLHGU9G22XRX1SYW</t>
-  </si>
-  <si>
-    <t>MXXFVS4H35T76BZK7</t>
-  </si>
-  <si>
-    <t>MM7V355N8R2YT2VGW</t>
-  </si>
-  <si>
-    <t>19FZ61EL3VTZRHVKY</t>
-  </si>
-  <si>
-    <t>HAFYMKN17T1Y21EMD</t>
-  </si>
-  <si>
-    <t>51S69J5S9HBRD4BRL</t>
-  </si>
-  <si>
-    <t>797KGTT55L1T6EUE0</t>
-  </si>
-  <si>
-    <t>L1B36HKH2YE3AJ9UH</t>
-  </si>
-  <si>
-    <t>Y0HNS6RH15VZFUG7B</t>
-  </si>
-  <si>
-    <t>KF975LV85674FG4A3</t>
-  </si>
-  <si>
-    <t>PX8YERS60S6N3HAWV</t>
-  </si>
-  <si>
-    <t>21MF6WL06JZ5FYYJL</t>
-  </si>
-  <si>
-    <t>YENRF14S6GGHAHDFC</t>
-  </si>
-  <si>
-    <t>NR057ZNY816U4A6FD</t>
-  </si>
-  <si>
-    <t>20FM1AP6319FNG2K0</t>
-  </si>
-  <si>
-    <t>2YSYYW2L7H9EK89VF</t>
-  </si>
-  <si>
-    <t>3NW5KLUW3G4D7HKNE</t>
-  </si>
-  <si>
-    <t>5WR3Y0SW2VFHS841M</t>
-  </si>
-  <si>
-    <t>874E7TET5HBS4LDAJ</t>
-  </si>
-  <si>
-    <t>H50ZTRZRXWG17JPAU</t>
-  </si>
-  <si>
-    <t>V9KZ3B85X37HSHD6P</t>
-  </si>
-  <si>
-    <t>CUGUF8KN29YVJ3R5Z</t>
-  </si>
-  <si>
-    <t>HA0BP8ZN61AWG8T7Y</t>
-  </si>
-  <si>
-    <t>6FKLUDJF369JX0XP6</t>
-  </si>
-  <si>
-    <t>MF64BVZB5C8S5DU51</t>
-  </si>
-  <si>
-    <t>5AE6750F911SXUK0L</t>
-  </si>
-  <si>
-    <t>0P5LM62S5A2VL28KJ</t>
-  </si>
-  <si>
-    <t>BUSK0DFY0NBKT35X0</t>
-  </si>
-  <si>
-    <t>YS6T8CTD3MV004AFN</t>
-  </si>
-  <si>
-    <t>CDDF2VK84HJRLB6S4</t>
-  </si>
-  <si>
-    <t>BTRACPCZ350DLAKGY</t>
-  </si>
-  <si>
-    <t>UT6AA65H5B8PCKNB5</t>
-  </si>
-  <si>
-    <t>GSXEN2NG38EBN6UPV</t>
-  </si>
-  <si>
-    <t>K46KCDPM8K2VPHWJX</t>
-  </si>
-  <si>
-    <t>SXYTF35N53NLUJY4D</t>
-  </si>
-  <si>
-    <t>DMKG2H0N1RD67GJ11</t>
-  </si>
-  <si>
-    <t>1FX1C21K5LD48GYZJ</t>
-  </si>
-  <si>
-    <t>HA2DESWN2W8VBVJDF</t>
-  </si>
-  <si>
-    <t>7JPGDYLE31WJCLG39</t>
-  </si>
-  <si>
-    <t>Y8LBLGUC9XLVH5UWW</t>
-  </si>
-  <si>
-    <t>WS7AXY6N605F143G8</t>
-  </si>
-  <si>
-    <t>ZB5A5AJJ8TC7BEZPV</t>
-  </si>
-  <si>
-    <t>Y9A310747ERHEJZDZ</t>
-  </si>
-  <si>
-    <t>ZGGDRPV500LAKVTXL</t>
-  </si>
-  <si>
-    <t>679N4N9Y9ARU18DV1</t>
-  </si>
-  <si>
-    <t>JZ4MXX2P0A9DFG8WH</t>
-  </si>
-  <si>
-    <t>Y7CE1YW319DMCY9DW</t>
-  </si>
-  <si>
-    <t>7V0H8B960LS4ALU8C</t>
-  </si>
-  <si>
-    <t>UT593TD97Y3EF9JX9</t>
-  </si>
-  <si>
-    <t>A8W8UGY01PWY2FKBX</t>
-  </si>
-  <si>
-    <t>NDLAJKK5XC8W06VDF</t>
-  </si>
-  <si>
-    <t>Sharon Bell</t>
-  </si>
-  <si>
-    <t>Andrew Martin</t>
-  </si>
-  <si>
-    <t>Felicia Davis</t>
-  </si>
-  <si>
-    <t>Morgan Griffin</t>
-  </si>
-  <si>
-    <t>Michael Rogers DDS</t>
-  </si>
-  <si>
-    <t>Donald Gray</t>
-  </si>
-  <si>
-    <t>Juan Ritter</t>
-  </si>
-  <si>
-    <t>Donald Alexander</t>
-  </si>
-  <si>
-    <t>Michael Rodriguez</t>
-  </si>
-  <si>
-    <t>Shawn Palmer</t>
-  </si>
-  <si>
-    <t>Rebecca Wells</t>
-  </si>
-  <si>
-    <t>Timothy Sanders</t>
-  </si>
-  <si>
-    <t>Robert Rollins</t>
-  </si>
-  <si>
-    <t>Anna Nichols</t>
-  </si>
-  <si>
-    <t>Loretta Newton</t>
-  </si>
-  <si>
-    <t>Brian Shields</t>
-  </si>
-  <si>
-    <t>Anna Richard</t>
-  </si>
-  <si>
-    <t>Katie Norman</t>
-  </si>
-  <si>
-    <t>Matthew Bond PhD</t>
-  </si>
-  <si>
-    <t>Diane Taylor</t>
-  </si>
-  <si>
-    <t>Austin Castillo</t>
-  </si>
-  <si>
-    <t>Michelle Bullock</t>
-  </si>
-  <si>
-    <t>Gregory Macdonald</t>
-  </si>
-  <si>
-    <t>Jasmin Martinez</t>
-  </si>
-  <si>
-    <t>Patrick Graves</t>
-  </si>
-  <si>
-    <t>Bryan Johnson</t>
-  </si>
-  <si>
-    <t>Julie Mitchell</t>
-  </si>
-  <si>
-    <t>Michael Torres</t>
-  </si>
-  <si>
-    <t>Donald Schmidt</t>
-  </si>
-  <si>
-    <t>Mindy Mckinney</t>
-  </si>
-  <si>
-    <t>Lisa Keith</t>
-  </si>
-  <si>
-    <t>Heather Reed</t>
-  </si>
-  <si>
-    <t>Jesse Lawson</t>
-  </si>
-  <si>
-    <t>Michael Rice</t>
-  </si>
-  <si>
-    <t>Gabrielle Cherry</t>
-  </si>
-  <si>
-    <t>Tara Walters</t>
-  </si>
-  <si>
-    <t>Kenneth Stevenson</t>
-  </si>
-  <si>
-    <t>Jeremy Dawson</t>
-  </si>
-  <si>
-    <t>Glenn Matthews</t>
-  </si>
-  <si>
-    <t>Veronica Benson</t>
-  </si>
-  <si>
-    <t>Steven Merritt</t>
-  </si>
-  <si>
-    <t>Joshua Steele</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Wayne Ward</t>
-  </si>
-  <si>
-    <t>Erik Morrison</t>
-  </si>
-  <si>
-    <t>Matthew Edwards</t>
-  </si>
-  <si>
-    <t>Amy Petersen</t>
-  </si>
-  <si>
-    <t>Christopher Ford</t>
-  </si>
-  <si>
-    <t>Alejandra Figueroa</t>
-  </si>
-  <si>
-    <t>Hannah Hobbs</t>
-  </si>
-  <si>
-    <t>Christopher Whitehead</t>
-  </si>
-  <si>
-    <t>Christopher Valencia</t>
-  </si>
-  <si>
-    <t>Scott Lara</t>
-  </si>
-  <si>
-    <t>Adam Pierce</t>
-  </si>
-  <si>
-    <t>Jennifer Clay</t>
+    <t>4F244SMY5SPZPD94K</t>
+  </si>
+  <si>
+    <t>WY6BJZEL54JXE4T8F</t>
+  </si>
+  <si>
+    <t>5X5YPK6W1268R9CBP</t>
+  </si>
+  <si>
+    <t>H0HZ4L131MKM3X9S4</t>
+  </si>
+  <si>
+    <t>GLTMJSS6X7P6NBEDL</t>
+  </si>
+  <si>
+    <t>H9GXAA6K888E4NRE0</t>
+  </si>
+  <si>
+    <t>D6DN8Z064VGPV939K</t>
+  </si>
+  <si>
+    <t>LEPFBADR1G41B83L2</t>
+  </si>
+  <si>
+    <t>EWBZM6YV67W33MXY9</t>
+  </si>
+  <si>
+    <t>CHGZSPRZ5PWC0MNX7</t>
+  </si>
+  <si>
+    <t>L3UR5ZAF6EEFPVSLW</t>
+  </si>
+  <si>
+    <t>1SLAT9W11SX6MES83</t>
+  </si>
+  <si>
+    <t>H7TA6BDR8ZS0NK6ND</t>
+  </si>
+  <si>
+    <t>R31P76VR2F5N3X1E8</t>
+  </si>
+  <si>
+    <t>WRZZDUR66UZWVB0DH</t>
+  </si>
+  <si>
+    <t>DR618L2Z05NGC77Y9</t>
+  </si>
+  <si>
+    <t>AURG7K1RXGMNSYLSV</t>
+  </si>
+  <si>
+    <t>54EXXYLP2G5YSJMBH</t>
+  </si>
+  <si>
+    <t>0DNJW78M083L0E0P7</t>
+  </si>
+  <si>
+    <t>FVB788ZE0XC1Z8TFF</t>
+  </si>
+  <si>
+    <t>3W07SA6T6G6XPFTPH</t>
+  </si>
+  <si>
+    <t>NP81YVTZ4ZCUM4H39</t>
+  </si>
+  <si>
+    <t>3R6P67L465XCTEW52</t>
+  </si>
+  <si>
+    <t>A7NSMJMW1RB9KNE91</t>
+  </si>
+  <si>
+    <t>69EY8RW874M69WFXD</t>
+  </si>
+  <si>
+    <t>KRC2RXHW2067GRMFL</t>
+  </si>
+  <si>
+    <t>99TTCX5T43R1RRWR1</t>
+  </si>
+  <si>
+    <t>ZTTJGGP77JBAYNWMJ</t>
+  </si>
+  <si>
+    <t>226KU1W004EG2TATP</t>
+  </si>
+  <si>
+    <t>2U5PJRW18MG4XGATV</t>
+  </si>
+  <si>
+    <t>G59DLRJL1PZG4CJA4</t>
+  </si>
+  <si>
+    <t>84VMZT0J5EV4Z4PTA</t>
+  </si>
+  <si>
+    <t>9YKXW3H793K5F5P8U</t>
+  </si>
+  <si>
+    <t>LUSH4YFM198L0T17C</t>
+  </si>
+  <si>
+    <t>B0T4MTE15YK83TNG9</t>
+  </si>
+  <si>
+    <t>EV2S0S8K0N725ZXWE</t>
+  </si>
+  <si>
+    <t>U3PEA95G89A21J3S4</t>
+  </si>
+  <si>
+    <t>WU3B98UV0134L0CEA</t>
+  </si>
+  <si>
+    <t>6ZCWTERS0VE2PLHFV</t>
+  </si>
+  <si>
+    <t>8B4GNML15YXXVADSK</t>
+  </si>
+  <si>
+    <t>057PEZHR8B26RL557</t>
+  </si>
+  <si>
+    <t>6UEAKUUG0MDWUWSM7</t>
+  </si>
+  <si>
+    <t>G7JVD2NB55B88HDBU</t>
+  </si>
+  <si>
+    <t>LPVMT3F59VPK908B7</t>
+  </si>
+  <si>
+    <t>GC52YU0G8WD6VECZT</t>
+  </si>
+  <si>
+    <t>ZLVSSJSM4AV0Y0VZ1</t>
+  </si>
+  <si>
+    <t>ETLVMEE98NG5W3RLP</t>
+  </si>
+  <si>
+    <t>BBZEFWUE6RC30YV8H</t>
+  </si>
+  <si>
+    <t>M1Y6BBNG5V3F6G8PE</t>
+  </si>
+  <si>
+    <t>TG1M2CGSXR0YRRDGH</t>
+  </si>
+  <si>
+    <t>CMRY80G73VZLH4BNR</t>
+  </si>
+  <si>
+    <t>TG2MLWWP6C25YZ4ZB</t>
+  </si>
+  <si>
+    <t>UDJ5EDLG062M5R6UE</t>
+  </si>
+  <si>
+    <t>A6HAKA0X14X2CJAGK</t>
+  </si>
+  <si>
+    <t>MP3ASD052VEUFC7N3</t>
+  </si>
+  <si>
+    <t>YH5N4B070P75ERSPX</t>
+  </si>
+  <si>
+    <t>ZMM341TC2DMX3HRWM</t>
+  </si>
+  <si>
+    <t>PKCUVRTWXSXGFEMD3</t>
+  </si>
+  <si>
+    <t>KDHDBJYA0JYPJ3JGA</t>
+  </si>
+  <si>
+    <t>RM08GB2998LZC014N</t>
+  </si>
+  <si>
+    <t>B9M0DH580TU8SSDJR</t>
+  </si>
+  <si>
+    <t>3A1WUKPCXKXAH6D05</t>
+  </si>
+  <si>
+    <t>41U8TLYJ6NM1SCWVX</t>
+  </si>
+  <si>
+    <t>ZFD5X0A97C6L4ZN9Z</t>
+  </si>
+  <si>
+    <t>HVNG39AN195VMXWDW</t>
+  </si>
+  <si>
+    <t>014B70XJ2X5K8LZGA</t>
+  </si>
+  <si>
+    <t>L6BB14VPXMMY08ALW</t>
+  </si>
+  <si>
+    <t>NJN9V37T6UUY1K54A</t>
+  </si>
+  <si>
+    <t>WCFCVAV87Z1MMA7RA</t>
+  </si>
+  <si>
+    <t>MA370G2J4N0MP3KHF</t>
+  </si>
+  <si>
+    <t>BDHE4H1E9M0H9X67G</t>
+  </si>
+  <si>
+    <t>4WF0HF9P3EBMNLCMK</t>
+  </si>
+  <si>
+    <t>16AP4D0X4U6ZZ3JSZ</t>
+  </si>
+  <si>
+    <t>YR1GWW6T921JCBYGC</t>
+  </si>
+  <si>
+    <t>G7H6EFJK5Z4XLHWZU</t>
+  </si>
+  <si>
+    <t>Y1MBCZH871EARSYTJ</t>
+  </si>
+  <si>
+    <t>UJK77LSJ1Z0V43HEX</t>
+  </si>
+  <si>
+    <t>T103LWLB75N83ZKFY</t>
+  </si>
+  <si>
+    <t>FATXUB6T4K17B5JBR</t>
+  </si>
+  <si>
+    <t>WJ50UZHW7D0KDYJ3T</t>
+  </si>
+  <si>
+    <t>0SF540P68CBD629C0</t>
+  </si>
+  <si>
+    <t>1X7AMZWL75ZCPM5SE</t>
+  </si>
+  <si>
+    <t>WRZ3AK3M6EH7A7BJ0</t>
+  </si>
+  <si>
+    <t>S894FJHP9CMC7LYCW</t>
+  </si>
+  <si>
+    <t>CV48G6HV72SZM06CX</t>
+  </si>
+  <si>
+    <t>202DA3D667FBG6H9C</t>
+  </si>
+  <si>
+    <t>02TPGEN41PKZ2C1GN</t>
+  </si>
+  <si>
+    <t>8B2T34BVXBURNJC5B</t>
+  </si>
+  <si>
+    <t>PD9YLXYKXHXCU345L</t>
+  </si>
+  <si>
+    <t>UCDS2HY61LW4TC9F6</t>
+  </si>
+  <si>
+    <t>0HWEB0JH30NPDP45A</t>
+  </si>
+  <si>
+    <t>57S8X0BEXT7V1HHKX</t>
+  </si>
+  <si>
+    <t>WDPRM4N609E635MNM</t>
+  </si>
+  <si>
+    <t>JK0G4VFBX83A256LG</t>
+  </si>
+  <si>
+    <t>YYM7PK2N6C3BU4LBM</t>
+  </si>
+  <si>
+    <t>2BGBJHJX442YYL0FZ</t>
+  </si>
+  <si>
+    <t>2ZH9MAG3X6PH2N5EE</t>
+  </si>
+  <si>
+    <t>B8D12HHP51F55B9GB</t>
+  </si>
+  <si>
+    <t>YSMLHZ0B4PZLM44RH</t>
+  </si>
+  <si>
+    <t>SX7LJYPE6ZE3XV0SC</t>
+  </si>
+  <si>
+    <t>53RGF9KH8ZDDV0KXR</t>
+  </si>
+  <si>
+    <t>GDKMTP0R3TYJ15GVE</t>
+  </si>
+  <si>
+    <t>EWXZN5AV2DYRZPCRH</t>
+  </si>
+  <si>
+    <t>CXYVVKYX4KF1HNY1Y</t>
+  </si>
+  <si>
+    <t>UA5UHK752T9PRBMTX</t>
+  </si>
+  <si>
+    <t>7JMLCVFP13CR2TZN8</t>
+  </si>
+  <si>
+    <t>P2EL18JR32A7AKFHG</t>
+  </si>
+  <si>
+    <t>S9NV2Y986FHH4ANYW</t>
+  </si>
+  <si>
+    <t>0Y7YWUA2XJY8BNNPG</t>
+  </si>
+  <si>
+    <t>BPMJYD9X4A56NNBUD</t>
+  </si>
+  <si>
+    <t>JU1UWK9HXA0DKZYW3</t>
+  </si>
+  <si>
+    <t>33GNDK238N3KYBNWA</t>
+  </si>
+  <si>
+    <t>9F8BRF77231TLAEME</t>
+  </si>
+  <si>
+    <t>UFG4F5TS8Z3JLD0AT</t>
+  </si>
+  <si>
+    <t>49JAR1M380SAL0SAB</t>
+  </si>
+  <si>
+    <t>JEHYWPP47ARLJZKM0</t>
+  </si>
+  <si>
+    <t>E2P5TUEL9N8D7F8CG</t>
+  </si>
+  <si>
+    <t>MGM58J5P68LS4A34H</t>
+  </si>
+  <si>
+    <t>86NHD1RJ5TVGGZBD5</t>
+  </si>
+  <si>
+    <t>BYGVM9YNXPT0Y2S5W</t>
+  </si>
+  <si>
+    <t>VGBSD7XH8GFASS3EC</t>
+  </si>
+  <si>
+    <t>4UNCRJ5K8LTN2Z6K1</t>
+  </si>
+  <si>
+    <t>5MTV7KTL0KVWT5812</t>
+  </si>
+  <si>
+    <t>9KJU8S5S7W070L5LV</t>
+  </si>
+  <si>
+    <t>1AERKBZ96E4FXXNHY</t>
+  </si>
+  <si>
+    <t>NEU3SG8T54TJTWBZR</t>
+  </si>
+  <si>
+    <t>W56ALFDU9JZEA8XG7</t>
+  </si>
+  <si>
+    <t>6RA9RW246ZAKCNXTG</t>
+  </si>
+  <si>
+    <t>KKET7V5U14CZ618U5</t>
+  </si>
+  <si>
+    <t>NRCTGSU73J5DJ4KEX</t>
+  </si>
+  <si>
+    <t>DE3F5F6D8AU4UD75V</t>
+  </si>
+  <si>
+    <t>P7JT3MDB925XNFZ3B</t>
+  </si>
+  <si>
+    <t>1Y019B5E7WD0V2TT4</t>
+  </si>
+  <si>
+    <t>1PLGESEH4PX92MRWH</t>
+  </si>
+  <si>
+    <t>YZK2K1H28P62JXF9J</t>
+  </si>
+  <si>
+    <t>UG7LD2W972N5758P8</t>
+  </si>
+  <si>
+    <t>8RGBUYJWXNLN89K5B</t>
+  </si>
+  <si>
+    <t>T7UGR6EE5MES5SL29</t>
+  </si>
+  <si>
+    <t>6D0FHW4R2X2NDD9LR</t>
+  </si>
+  <si>
+    <t>1RPRD9DW1T71FRFN3</t>
+  </si>
+  <si>
+    <t>WKNSMZUMXJGCAAK7V</t>
+  </si>
+  <si>
+    <t>1GV7UJMA7MB2848E4</t>
+  </si>
+  <si>
+    <t>P68GCK48XN0ED9DXE</t>
+  </si>
+  <si>
+    <t>BFBGZW8F5ZY3YN01F</t>
+  </si>
+  <si>
+    <t>8HZ9FJVM3NMEC1Y6T</t>
+  </si>
+  <si>
+    <t>5HJFSVTE6BT826BR8</t>
+  </si>
+  <si>
+    <t>WADADHN343AGU75SW</t>
+  </si>
+  <si>
+    <t>9E40LD0N4N33T4E5V</t>
+  </si>
+  <si>
+    <t>JP37RHPU8A9ALSY67</t>
+  </si>
+  <si>
+    <t>4726CEF12NY0K2U4W</t>
+  </si>
+  <si>
+    <t>MLZ1CBLC1CKENHP7W</t>
+  </si>
+  <si>
+    <t>R94Y1YZ54L2GEB75Z</t>
+  </si>
+  <si>
+    <t>0ZPYWF9C3LBW2DGUR</t>
+  </si>
+  <si>
+    <t>5UH1T9DU4XXNGEGJ3</t>
+  </si>
+  <si>
+    <t>TVCX5D9X7MX11F2E1</t>
+  </si>
+  <si>
+    <t>5YNTV0XM66WA2LKC6</t>
+  </si>
+  <si>
+    <t>R6H40NEU4T8E3SJD8</t>
+  </si>
+  <si>
+    <t>NCKBSK7Y01BUL3XWR</t>
+  </si>
+  <si>
+    <t>X0W8KUTUXH5V4FSNT</t>
+  </si>
+  <si>
+    <t>95MK1AAH33NBP30UD</t>
+  </si>
+  <si>
+    <t>987E0H186K7MVTWMC</t>
+  </si>
+  <si>
+    <t>P6X9P4F89XJVX49B5</t>
+  </si>
+  <si>
+    <t>5KVGRVCD65TK6HUEZ</t>
+  </si>
+  <si>
+    <t>30UUSEH358MUW3ZCX</t>
+  </si>
+  <si>
+    <t>1C31SHJ19RC1LZ6MN</t>
+  </si>
+  <si>
+    <t>D4LRHVF3436CEKTE7</t>
+  </si>
+  <si>
+    <t>LV4JUU3F0CHCGBKRB</t>
+  </si>
+  <si>
+    <t>H1032H267UJ3PGP7M</t>
+  </si>
+  <si>
+    <t>1WP4TFS22SPN2PHMV</t>
+  </si>
+  <si>
+    <t>0DZNR2V713HGF4E74</t>
+  </si>
+  <si>
+    <t>KUKVU28S8WZAMPAG2</t>
+  </si>
+  <si>
+    <t>FV12Z8CS99F9U21S3</t>
+  </si>
+  <si>
+    <t>RT89WNSJ00YBU6DSG</t>
+  </si>
+  <si>
+    <t>2DNBAHL45EMXVVZU7</t>
+  </si>
+  <si>
+    <t>81524ER47JWRG1LJ5</t>
+  </si>
+  <si>
+    <t>ZN3M8CNV44TF3AED4</t>
+  </si>
+  <si>
+    <t>ZH09GRB41XCBUY5UH</t>
+  </si>
+  <si>
+    <t>UNX8J7UK4SR394FXW</t>
+  </si>
+  <si>
+    <t>SMA91A6G4CGHS27PL</t>
+  </si>
+  <si>
+    <t>F4P4T4NX1RFFFSW6C</t>
+  </si>
+  <si>
+    <t>PNGCBM515TPM8MMUT</t>
+  </si>
+  <si>
+    <t>XRT06P4V3T6ZU9YUZ</t>
+  </si>
+  <si>
+    <t>AA6B17JD5B47B755K</t>
+  </si>
+  <si>
+    <t>HED75A537S1VDL90J</t>
+  </si>
+  <si>
+    <t>6PDPGXEG5H1NNGD6F</t>
+  </si>
+  <si>
+    <t>H9WBDD3473DJRSCK4</t>
+  </si>
+  <si>
+    <t>B131YBDS8YL9BNKB8</t>
+  </si>
+  <si>
+    <t>XJPRA0CE0T25FJA8T</t>
+  </si>
+  <si>
+    <t>L2CPZWDZ8RPFAC4FB</t>
+  </si>
+  <si>
+    <t>MJ8G9K676DWZAH09A</t>
+  </si>
+  <si>
+    <t>624B9AHN18TMMC9HT</t>
+  </si>
+  <si>
+    <t>BDHW01WZ29KNKJFF1</t>
+  </si>
+  <si>
+    <t>2CYS2RT4769TN7F7P</t>
+  </si>
+  <si>
+    <t>TXPEU00P32XBCNP7B</t>
+  </si>
+  <si>
+    <t>6AHMP30S96TWM5XB0</t>
+  </si>
+  <si>
+    <t>GG13ZHDN77V4RR1SZ</t>
+  </si>
+  <si>
+    <t>Z8E5EXSA1LJ6NA0GS</t>
+  </si>
+  <si>
+    <t>M2WH4XHM9R2VNHZKF</t>
+  </si>
+  <si>
+    <t>0H92FYEW7GLCHYHPS</t>
+  </si>
+  <si>
+    <t>V6JXDPMH79SPVVSC7</t>
+  </si>
+  <si>
+    <t>ZKJYUY2U68HT0C7C5</t>
+  </si>
+  <si>
+    <t>YRXVSYK287U1EDXNP</t>
+  </si>
+  <si>
+    <t>6KCT07LH92A3ABV19</t>
+  </si>
+  <si>
+    <t>W5G083P622V3CGJM5</t>
+  </si>
+  <si>
+    <t>KKYC42V9XU2SNCTZD</t>
+  </si>
+  <si>
+    <t>SUDVEZCW16BXG3AUN</t>
+  </si>
+  <si>
+    <t>TS9DD0VJ2XZSXCS24</t>
+  </si>
+  <si>
+    <t>BEK6UEBGX424X519D</t>
+  </si>
+  <si>
+    <t>HGBWW84J8NH07BC9H</t>
+  </si>
+  <si>
+    <t>J3LX9JTC9FJAZJ55U</t>
+  </si>
+  <si>
+    <t>TCLKKYBL9LA4P0GEU</t>
+  </si>
+  <si>
+    <t>23VH2KSJ077UVHUYK</t>
+  </si>
+  <si>
+    <t>C1PPHUK15GS43KMGM</t>
+  </si>
+  <si>
+    <t>K1668A6Z3ZZNKTK11</t>
+  </si>
+  <si>
+    <t>SSF5ASND90AZN2XBE</t>
+  </si>
+  <si>
+    <t>XCZEK4107LL8Y11WN</t>
+  </si>
+  <si>
+    <t>6U5DH6GG6WGYH8710</t>
+  </si>
+  <si>
+    <t>KVSKDD784JWKE27JM</t>
+  </si>
+  <si>
+    <t>HXASBB213GAJVFUJ4</t>
+  </si>
+  <si>
+    <t>2UBYLNFW3B1121HW8</t>
+  </si>
+  <si>
+    <t>RNCXGFPJ8XPEWSRTC</t>
+  </si>
+  <si>
+    <t>1D5CP82B3NK7NRSDS</t>
+  </si>
+  <si>
+    <t>8KBTPKZJX3B0A8F4K</t>
+  </si>
+  <si>
+    <t>5KCTL02P4EGWD2FCL</t>
+  </si>
+  <si>
+    <t>6ELLG85D1X44VLLT6</t>
+  </si>
+  <si>
+    <t>URU8EY6P9N36NXADH</t>
+  </si>
+  <si>
+    <t>EBKUAHE19D3FBC3YR</t>
+  </si>
+  <si>
+    <t>G6JK1HBL5ZMWR6SGF</t>
+  </si>
+  <si>
+    <t>MPD95BFT787BJGPJB</t>
+  </si>
+  <si>
+    <t>YY3S8D078NM0GPA7R</t>
+  </si>
+  <si>
+    <t>BC93NWYR1NBMMBFU5</t>
+  </si>
+  <si>
+    <t>WJYSG3S324FG716B2</t>
+  </si>
+  <si>
+    <t>5CJLUSHR0ZB7WC1N7</t>
+  </si>
+  <si>
+    <t>8DMF9L240Y708RKL0</t>
+  </si>
+  <si>
+    <t>Y0XWH8A70UK5AUF4Y</t>
+  </si>
+  <si>
+    <t>A0YUPU9B5FHXF4SMK</t>
+  </si>
+  <si>
+    <t>BN0S9YKK0NS8S0JC5</t>
+  </si>
+  <si>
+    <t>ECXBE6MV7FJUM7HH0</t>
+  </si>
+  <si>
+    <t>2NZHT5S77N0FZNRLF</t>
+  </si>
+  <si>
+    <t>TU59JFZ28JR7YSH2J</t>
+  </si>
+  <si>
+    <t>EMFD87HC16F6SXG5L</t>
+  </si>
+  <si>
+    <t>NE4C0FCS7GMSA7CJG</t>
+  </si>
+  <si>
+    <t>9LT9EV526C5T841FX</t>
+  </si>
+  <si>
+    <t>SFSLBH4H9XZKX5RCY</t>
+  </si>
+  <si>
+    <t>WHJ2263M2JRVA624W</t>
+  </si>
+  <si>
+    <t>3Y7LC2T666TD2BW4L</t>
+  </si>
+  <si>
+    <t>8V2XNZPWX2T06VE39</t>
+  </si>
+  <si>
+    <t>8G4F72J01YDHPM9KZ</t>
+  </si>
+  <si>
+    <t>GGKP5A232K63JW4EA</t>
+  </si>
+  <si>
+    <t>NX09NP8V6M5510YFH</t>
+  </si>
+  <si>
+    <t>1B77Z7CZ7NN6M9VPA</t>
+  </si>
+  <si>
+    <t>C3TURSW9XRP4CEUVT</t>
+  </si>
+  <si>
+    <t>1LKKMP1G1EY6GNT09</t>
+  </si>
+  <si>
+    <t>L9XYUPXG6WVREM4VC</t>
+  </si>
+  <si>
+    <t>PB3NC27T2BN77SYJZ</t>
+  </si>
+  <si>
+    <t>BY8HWZ4P57VY0SAKV</t>
+  </si>
+  <si>
+    <t>CAR0U8WF2JU4C127X</t>
+  </si>
+  <si>
+    <t>VHDG28U81HB2W7D5T</t>
+  </si>
+  <si>
+    <t>V0JD7G5V84CD0TH3D</t>
+  </si>
+  <si>
+    <t>S85Z4SDB5VHV9V2C4</t>
+  </si>
+  <si>
+    <t>Z4KHDGMC074DCMEEL</t>
+  </si>
+  <si>
+    <t>8H13UDHZ59YW26BVC</t>
+  </si>
+  <si>
+    <t>7KCLFYPY1TAZ5JB6K</t>
+  </si>
+  <si>
+    <t>HF30JRPE9JW5F0LFT</t>
+  </si>
+  <si>
+    <t>CSCZP9H10VM3S2SBG</t>
+  </si>
+  <si>
+    <t>4MKY5CAC1186NNB7G</t>
+  </si>
+  <si>
+    <t>ULP58J10779FRPJT0</t>
+  </si>
+  <si>
+    <t>9HYHJD402FJ002TV2</t>
+  </si>
+  <si>
+    <t>3NRG52FE7RH8HSNKP</t>
+  </si>
+  <si>
+    <t>B5RDMY8434V20ZZJK</t>
+  </si>
+  <si>
+    <t>G4AEPM1153SXNCLSA</t>
+  </si>
+  <si>
+    <t>Jennifer Jimenez</t>
+  </si>
+  <si>
+    <t>Krista Kelly</t>
+  </si>
+  <si>
+    <t>Katherine Anderson</t>
+  </si>
+  <si>
+    <t>Brandy Carter</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>Sheri Humphrey</t>
+  </si>
+  <si>
+    <t>Karla Stephenson</t>
+  </si>
+  <si>
+    <t>William Spencer</t>
+  </si>
+  <si>
+    <t>Christopher Bruce</t>
+  </si>
+  <si>
+    <t>Jennifer Sandoval</t>
+  </si>
+  <si>
+    <t>Jessica Evans</t>
+  </si>
+  <si>
+    <t>Melanie Williams</t>
+  </si>
+  <si>
+    <t>Amber Tapia</t>
+  </si>
+  <si>
+    <t>William Robinson</t>
+  </si>
+  <si>
+    <t>Michael Perez</t>
+  </si>
+  <si>
+    <t>Edward George</t>
+  </si>
+  <si>
+    <t>Stephanie Carr</t>
+  </si>
+  <si>
+    <t>Sonya Stewart</t>
   </si>
   <si>
     <t>Lisa Brown</t>
   </si>
   <si>
-    <t>Karen Pope</t>
-  </si>
-  <si>
-    <t>Marc Church</t>
-  </si>
-  <si>
-    <t>Jennifer Gaines DVM</t>
-  </si>
-  <si>
-    <t>Brandon Sharp</t>
-  </si>
-  <si>
-    <t>Theresa Reed</t>
-  </si>
-  <si>
-    <t>Benjamin Riley</t>
-  </si>
-  <si>
-    <t>Lauren Duarte</t>
-  </si>
-  <si>
-    <t>Carl Burke</t>
-  </si>
-  <si>
-    <t>Rachel Caldwell</t>
-  </si>
-  <si>
-    <t>Michael Patterson</t>
-  </si>
-  <si>
-    <t>Barbara Jones</t>
-  </si>
-  <si>
-    <t>Joshua Lindsey</t>
-  </si>
-  <si>
-    <t>Rebecca Gentry</t>
-  </si>
-  <si>
-    <t>Paul Matthews</t>
-  </si>
-  <si>
-    <t>John Patel</t>
-  </si>
-  <si>
-    <t>Jason Ferguson</t>
-  </si>
-  <si>
-    <t>Alexander Evans</t>
-  </si>
-  <si>
-    <t>Ryan Yates</t>
-  </si>
-  <si>
-    <t>Johnny Diaz</t>
-  </si>
-  <si>
-    <t>Amy Mahoney</t>
-  </si>
-  <si>
-    <t>Zachary Welch</t>
-  </si>
-  <si>
-    <t>Brian Foster</t>
-  </si>
-  <si>
-    <t>Michael Hutchinson</t>
-  </si>
-  <si>
-    <t>Lisa Aguilar</t>
-  </si>
-  <si>
-    <t>Michaela Thomas</t>
-  </si>
-  <si>
-    <t>Christian Salinas</t>
-  </si>
-  <si>
-    <t>Robert Roman DDS</t>
-  </si>
-  <si>
-    <t>Daniel Avila</t>
-  </si>
-  <si>
-    <t>Gary Mason</t>
-  </si>
-  <si>
-    <t>Eric Watson</t>
-  </si>
-  <si>
-    <t>Jenny Baker</t>
-  </si>
-  <si>
-    <t>Jason Kim</t>
-  </si>
-  <si>
-    <t>Charles Chase</t>
-  </si>
-  <si>
-    <t>Elizabeth Salazar</t>
-  </si>
-  <si>
-    <t>Theresa Roberts</t>
-  </si>
-  <si>
-    <t>Gwendolyn Martin</t>
-  </si>
-  <si>
-    <t>Christopher Martin</t>
-  </si>
-  <si>
-    <t>Kimberly Simpson</t>
-  </si>
-  <si>
-    <t>Billy Li</t>
-  </si>
-  <si>
-    <t>Roger Hill</t>
-  </si>
-  <si>
-    <t>Joseph Russell</t>
-  </si>
-  <si>
-    <t>Ashley Whitney</t>
-  </si>
-  <si>
-    <t>Aaron Serrano</t>
-  </si>
-  <si>
-    <t>Kathryn Mitchell</t>
-  </si>
-  <si>
-    <t>Yolanda Singh</t>
-  </si>
-  <si>
-    <t>Jennifer Santos</t>
-  </si>
-  <si>
-    <t>Jamie Barnes</t>
-  </si>
-  <si>
-    <t>Mary Tucker</t>
-  </si>
-  <si>
-    <t>Thomas Gutierrez</t>
-  </si>
-  <si>
-    <t>Shelia Gray</t>
-  </si>
-  <si>
-    <t>Trevor Jenkins</t>
-  </si>
-  <si>
-    <t>Christine Schmidt</t>
-  </si>
-  <si>
-    <t>Christie Alvarez</t>
-  </si>
-  <si>
-    <t>Dr. Maria Fuller</t>
-  </si>
-  <si>
-    <t>Dawn Thomas</t>
-  </si>
-  <si>
-    <t>Jennifer Hudson</t>
-  </si>
-  <si>
-    <t>Timothy Lee</t>
-  </si>
-  <si>
-    <t>Justin James</t>
-  </si>
-  <si>
-    <t>Sean Jarvis</t>
-  </si>
-  <si>
-    <t>Eric Jones</t>
-  </si>
-  <si>
-    <t>Melissa Jones</t>
-  </si>
-  <si>
-    <t>David Frey</t>
-  </si>
-  <si>
-    <t>Tara Fuller</t>
-  </si>
-  <si>
-    <t>Scott Blair</t>
-  </si>
-  <si>
-    <t>Amy Reed</t>
-  </si>
-  <si>
-    <t>Steven Robinson</t>
-  </si>
-  <si>
-    <t>Laurie Miller</t>
-  </si>
-  <si>
-    <t>Caleb Cooke</t>
-  </si>
-  <si>
-    <t>Jeffrey Hamilton</t>
-  </si>
-  <si>
-    <t>Tammy Schwartz</t>
-  </si>
-  <si>
-    <t>Robert Ortega</t>
-  </si>
-  <si>
-    <t>Robert Rowe</t>
-  </si>
-  <si>
-    <t>Michael Wagner</t>
-  </si>
-  <si>
-    <t>Kathleen Parker</t>
-  </si>
-  <si>
-    <t>Laura Andrews</t>
-  </si>
-  <si>
-    <t>Joseph Rojas</t>
-  </si>
-  <si>
-    <t>Shannon Jackson</t>
-  </si>
-  <si>
-    <t>Mary Boone</t>
-  </si>
-  <si>
-    <t>Angela Macdonald</t>
-  </si>
-  <si>
-    <t>Kelly Bartlett</t>
-  </si>
-  <si>
-    <t>Ashley Pratt</t>
-  </si>
-  <si>
-    <t>Mark Myers</t>
-  </si>
-  <si>
-    <t>Chase Jones</t>
-  </si>
-  <si>
-    <t>Christopher Edwards</t>
-  </si>
-  <si>
-    <t>Pamela King</t>
-  </si>
-  <si>
-    <t>Adam Warren</t>
-  </si>
-  <si>
-    <t>Stephanie Guzman</t>
-  </si>
-  <si>
-    <t>Jason Horn</t>
-  </si>
-  <si>
-    <t>Tina Wood</t>
-  </si>
-  <si>
-    <t>Joseph Oliver</t>
-  </si>
-  <si>
-    <t>Marissa Powell</t>
-  </si>
-  <si>
-    <t>Hannah Oliver</t>
-  </si>
-  <si>
-    <t>Caroline Donaldson</t>
-  </si>
-  <si>
-    <t>Mr. Michael Meyers Jr.</t>
-  </si>
-  <si>
-    <t>Amanda Aguilar</t>
-  </si>
-  <si>
-    <t>William Williams</t>
-  </si>
-  <si>
-    <t>Mrs. Danielle Livingston</t>
-  </si>
-  <si>
-    <t>Holly Brooks</t>
-  </si>
-  <si>
-    <t>Jenna Blackburn</t>
-  </si>
-  <si>
-    <t>Kim Powell</t>
-  </si>
-  <si>
-    <t>Jennifer Campbell</t>
-  </si>
-  <si>
-    <t>Christine Welch</t>
-  </si>
-  <si>
-    <t>Marcus Parks</t>
-  </si>
-  <si>
-    <t>Jennifer Johnson</t>
-  </si>
-  <si>
-    <t>Evelyn Cortez</t>
-  </si>
-  <si>
-    <t>Timothy Barry</t>
-  </si>
-  <si>
-    <t>Brendan Wood</t>
-  </si>
-  <si>
-    <t>Sandra Smith</t>
-  </si>
-  <si>
-    <t>Ronald Monroe</t>
-  </si>
-  <si>
-    <t>Pedro Sellers</t>
-  </si>
-  <si>
-    <t>Joy Smith</t>
-  </si>
-  <si>
-    <t>David Diaz</t>
-  </si>
-  <si>
-    <t>Megan Farmer</t>
-  </si>
-  <si>
-    <t>Mr. James Dean</t>
-  </si>
-  <si>
-    <t>Jason Brandt</t>
-  </si>
-  <si>
-    <t>Kathleen French</t>
-  </si>
-  <si>
-    <t>Shawn Hayes</t>
-  </si>
-  <si>
-    <t>Sarah Campbell</t>
-  </si>
-  <si>
-    <t>Michele Mckay</t>
-  </si>
-  <si>
-    <t>Laura Patton</t>
-  </si>
-  <si>
-    <t>James Chambers</t>
-  </si>
-  <si>
-    <t>Brian Lee</t>
-  </si>
-  <si>
-    <t>Patricia Ramirez</t>
-  </si>
-  <si>
-    <t>Robert Russell</t>
-  </si>
-  <si>
-    <t>Jay Mcguire</t>
-  </si>
-  <si>
-    <t>Sonya Vaughn</t>
-  </si>
-  <si>
-    <t>Julia Foster</t>
-  </si>
-  <si>
-    <t>Amanda Roberson</t>
-  </si>
-  <si>
-    <t>Krista Lane</t>
-  </si>
-  <si>
-    <t>Paula Robinson</t>
-  </si>
-  <si>
-    <t>Matthew Smith</t>
-  </si>
-  <si>
-    <t>Brandon Brooks</t>
-  </si>
-  <si>
-    <t>Chelsea Taylor</t>
-  </si>
-  <si>
-    <t>Brittany Ward</t>
-  </si>
-  <si>
-    <t>Amanda Perez</t>
-  </si>
-  <si>
-    <t>Melissa Oconnell</t>
-  </si>
-  <si>
-    <t>Joan Rice</t>
-  </si>
-  <si>
-    <t>Wesley Levine</t>
-  </si>
-  <si>
-    <t>Christopher Miller</t>
-  </si>
-  <si>
-    <t>Beth Robinson</t>
-  </si>
-  <si>
-    <t>Brent Elliott</t>
-  </si>
-  <si>
-    <t>Melissa Barker</t>
-  </si>
-  <si>
-    <t>Mario Fleming</t>
-  </si>
-  <si>
-    <t>Diana Curry</t>
-  </si>
-  <si>
-    <t>Dominique Vasquez</t>
-  </si>
-  <si>
-    <t>Lance Jackson</t>
-  </si>
-  <si>
-    <t>Rachel Swanson</t>
-  </si>
-  <si>
-    <t>Laura Hinton</t>
-  </si>
-  <si>
-    <t>Julia Williams</t>
-  </si>
-  <si>
-    <t>Ruben Ross</t>
-  </si>
-  <si>
-    <t>Sean Fernandez</t>
-  </si>
-  <si>
-    <t>Anna Meyer</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Crystal Harris</t>
-  </si>
-  <si>
-    <t>Amber Davis</t>
-  </si>
-  <si>
-    <t>Stephen Baldwin</t>
-  </si>
-  <si>
-    <t>Kathy Williams</t>
-  </si>
-  <si>
-    <t>Latoya Kerr</t>
-  </si>
-  <si>
-    <t>Larry Ramos</t>
-  </si>
-  <si>
-    <t>Evan Pierce</t>
-  </si>
-  <si>
-    <t>Anna Sanders</t>
-  </si>
-  <si>
-    <t>David Mcclain</t>
-  </si>
-  <si>
-    <t>Tammy Woodard</t>
-  </si>
-  <si>
-    <t>Tracy Rivas</t>
-  </si>
-  <si>
-    <t>Rebecca Smith</t>
-  </si>
-  <si>
-    <t>Dawn Bailey</t>
-  </si>
-  <si>
-    <t>Melissa Green</t>
-  </si>
-  <si>
-    <t>Thomas Lyons</t>
-  </si>
-  <si>
-    <t>Anna Ford</t>
-  </si>
-  <si>
-    <t>Beth Martinez</t>
-  </si>
-  <si>
-    <t>Rachel Smith</t>
-  </si>
-  <si>
-    <t>Kathleen Montgomery</t>
-  </si>
-  <si>
-    <t>Barbara Howard</t>
-  </si>
-  <si>
-    <t>Ricky Hahn</t>
-  </si>
-  <si>
-    <t>Destiny Greene</t>
-  </si>
-  <si>
-    <t>Matthew Bradley</t>
-  </si>
-  <si>
-    <t>Kristy White</t>
-  </si>
-  <si>
-    <t>Daniel Miller</t>
-  </si>
-  <si>
-    <t>Patricia Chang</t>
-  </si>
-  <si>
-    <t>Jessica Haas</t>
-  </si>
-  <si>
-    <t>Kenneth Jones</t>
-  </si>
-  <si>
-    <t>Mark Morgan</t>
-  </si>
-  <si>
-    <t>Timothy Taylor</t>
-  </si>
-  <si>
-    <t>John Ellis</t>
-  </si>
-  <si>
-    <t>Holly Steele</t>
-  </si>
-  <si>
-    <t>Randy Mcdonald</t>
-  </si>
-  <si>
-    <t>Renee Hinton</t>
-  </si>
-  <si>
-    <t>Shannon Hunt</t>
-  </si>
-  <si>
-    <t>Derek Hancock</t>
-  </si>
-  <si>
-    <t>William Dixon</t>
-  </si>
-  <si>
-    <t>Brianna West</t>
-  </si>
-  <si>
-    <t>Ashley Mccoy</t>
-  </si>
-  <si>
-    <t>Allison Davis</t>
-  </si>
-  <si>
-    <t>Michael Sanchez</t>
-  </si>
-  <si>
-    <t>Kenneth Marquez</t>
-  </si>
-  <si>
-    <t>Rebecca Simmons</t>
-  </si>
-  <si>
-    <t>Frank Morrison</t>
-  </si>
-  <si>
-    <t>Michael Wolf</t>
-  </si>
-  <si>
-    <t>Kenneth Morgan</t>
-  </si>
-  <si>
-    <t>Jeffrey Stephenson</t>
-  </si>
-  <si>
-    <t>Carla Bryan</t>
-  </si>
-  <si>
-    <t>Clifford Ortiz</t>
-  </si>
-  <si>
-    <t>Janice Washington</t>
-  </si>
-  <si>
-    <t>John Baker</t>
-  </si>
-  <si>
-    <t>Lisa Salas</t>
-  </si>
-  <si>
-    <t>Pamela Hubbard</t>
-  </si>
-  <si>
-    <t>Taylor Gomez</t>
-  </si>
-  <si>
-    <t>Pamela Mcdowell</t>
-  </si>
-  <si>
-    <t>William Flores</t>
-  </si>
-  <si>
-    <t>Cheryl Carr</t>
-  </si>
-  <si>
-    <t>Cheryl Smith</t>
-  </si>
-  <si>
-    <t>Benjamin Martinez</t>
-  </si>
-  <si>
-    <t>Mr. Michael Pitts Jr.</t>
-  </si>
-  <si>
-    <t>Jessica Wilson</t>
-  </si>
-  <si>
-    <t>Amy Carson</t>
-  </si>
-  <si>
-    <t>Kyle Carson</t>
-  </si>
-  <si>
-    <t>Joshua Duncan</t>
-  </si>
-  <si>
-    <t>Jessica Martinez</t>
-  </si>
-  <si>
-    <t>Sarah Garza</t>
-  </si>
-  <si>
-    <t>David Santana</t>
-  </si>
-  <si>
-    <t>Janice Werner</t>
-  </si>
-  <si>
-    <t>Christian Porter Jr.</t>
-  </si>
-  <si>
-    <t>Pamela Brooks</t>
-  </si>
-  <si>
-    <t>Brian Owens</t>
-  </si>
-  <si>
-    <t>Donald Adams</t>
-  </si>
-  <si>
-    <t>Steven Brown</t>
-  </si>
-  <si>
-    <t>Lisa Jennings</t>
-  </si>
-  <si>
-    <t>Morgan Jackson</t>
-  </si>
-  <si>
-    <t>Chad Hudson</t>
-  </si>
-  <si>
-    <t>Samantha Mitchell</t>
-  </si>
-  <si>
-    <t>Gregory Gray MD</t>
-  </si>
-  <si>
-    <t>Dale Clay</t>
-  </si>
-  <si>
-    <t>Cynthia Warner</t>
-  </si>
-  <si>
-    <t>Carmen Flores</t>
-  </si>
-  <si>
-    <t>Anna Woodward</t>
-  </si>
-  <si>
-    <t>Christopher Cervantes</t>
-  </si>
-  <si>
-    <t>Sarah Tran</t>
-  </si>
-  <si>
-    <t>Michael Taylor</t>
-  </si>
-  <si>
-    <t>David Marshall</t>
-  </si>
-  <si>
-    <t>Casey Brown</t>
-  </si>
-  <si>
-    <t>Kaitlyn Johnson</t>
-  </si>
-  <si>
-    <t>Julie Garza</t>
-  </si>
-  <si>
-    <t>Tracy Martinez</t>
+    <t>Timothy Reed</t>
+  </si>
+  <si>
+    <t>Susan Benson</t>
+  </si>
+  <si>
+    <t>Julia Vargas</t>
+  </si>
+  <si>
+    <t>Carol Torres</t>
+  </si>
+  <si>
+    <t>John Fleming</t>
+  </si>
+  <si>
+    <t>Stephanie Holland</t>
+  </si>
+  <si>
+    <t>Jamie Kirby</t>
+  </si>
+  <si>
+    <t>Michelle Walker</t>
+  </si>
+  <si>
+    <t>Stephanie Herrera</t>
+  </si>
+  <si>
+    <t>Debra Willis</t>
+  </si>
+  <si>
+    <t>David Carpenter</t>
+  </si>
+  <si>
+    <t>Timothy Chen</t>
+  </si>
+  <si>
+    <t>Dr. Nichole Thomas</t>
+  </si>
+  <si>
+    <t>Barbara Peck</t>
+  </si>
+  <si>
+    <t>William Alvarez</t>
+  </si>
+  <si>
+    <t>Andrea Miller</t>
+  </si>
+  <si>
+    <t>William Garcia</t>
+  </si>
+  <si>
+    <t>Mrs. Sarah Garner</t>
+  </si>
+  <si>
+    <t>Kari Gray</t>
+  </si>
+  <si>
+    <t>Dominique Wells</t>
+  </si>
+  <si>
+    <t>Megan Solis</t>
+  </si>
+  <si>
+    <t>Maria Hull</t>
+  </si>
+  <si>
+    <t>Erica Sherman</t>
+  </si>
+  <si>
+    <t>Carlos Walls</t>
+  </si>
+  <si>
+    <t>Mark Arellano</t>
+  </si>
+  <si>
+    <t>Brian Steele</t>
+  </si>
+  <si>
+    <t>Jeffrey Smith</t>
+  </si>
+  <si>
+    <t>Matthew Carlson</t>
+  </si>
+  <si>
+    <t>Joseph Clark</t>
+  </si>
+  <si>
+    <t>Elizabeth Figueroa</t>
+  </si>
+  <si>
+    <t>Gina Morse</t>
+  </si>
+  <si>
+    <t>Rebecca Perez</t>
+  </si>
+  <si>
+    <t>Sydney Mcdonald</t>
+  </si>
+  <si>
+    <t>Dennis Zuniga</t>
+  </si>
+  <si>
+    <t>Aaron Hicks</t>
+  </si>
+  <si>
+    <t>Elizabeth Watkins</t>
+  </si>
+  <si>
+    <t>Meghan Ross</t>
+  </si>
+  <si>
+    <t>Melissa Mcdaniel</t>
+  </si>
+  <si>
+    <t>Lisa Ramirez</t>
+  </si>
+  <si>
+    <t>Joseph Bell</t>
+  </si>
+  <si>
+    <t>William Jones</t>
+  </si>
+  <si>
+    <t>Angela Foster</t>
+  </si>
+  <si>
+    <t>William Morgan</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Mitchell Rogers</t>
+  </si>
+  <si>
+    <t>Keith Williams</t>
+  </si>
+  <si>
+    <t>Jonathan Wiggins</t>
+  </si>
+  <si>
+    <t>Nicholas Ayala</t>
+  </si>
+  <si>
+    <t>Claire Chang</t>
+  </si>
+  <si>
+    <t>Justin Woods</t>
+  </si>
+  <si>
+    <t>Christine Howard</t>
+  </si>
+  <si>
+    <t>Crystal Allen</t>
+  </si>
+  <si>
+    <t>Brittany Gaines</t>
+  </si>
+  <si>
+    <t>Emily Gallagher</t>
+  </si>
+  <si>
+    <t>Dean Butler</t>
+  </si>
+  <si>
+    <t>Maria Watson</t>
+  </si>
+  <si>
+    <t>Jacob Gould</t>
+  </si>
+  <si>
+    <t>Jacqueline Velazquez</t>
+  </si>
+  <si>
+    <t>Christina Gordon</t>
+  </si>
+  <si>
+    <t>Jeff Andrews</t>
+  </si>
+  <si>
+    <t>Catherine Buchanan</t>
+  </si>
+  <si>
+    <t>James Perez</t>
+  </si>
+  <si>
+    <t>Tiffany Martin</t>
+  </si>
+  <si>
+    <t>Jose Davis</t>
+  </si>
+  <si>
+    <t>Victoria Miller</t>
+  </si>
+  <si>
+    <t>Marvin Larson</t>
+  </si>
+  <si>
+    <t>Brandon Hill</t>
+  </si>
+  <si>
+    <t>Joshua Reeves</t>
+  </si>
+  <si>
+    <t>Nicholas Burton</t>
+  </si>
+  <si>
+    <t>Stanley Bell</t>
+  </si>
+  <si>
+    <t>Ryan Whitehead</t>
+  </si>
+  <si>
+    <t>Christine Powell</t>
+  </si>
+  <si>
+    <t>Sean Ramirez</t>
+  </si>
+  <si>
+    <t>Nicholas Robertson</t>
+  </si>
+  <si>
+    <t>Alexis Vang</t>
+  </si>
+  <si>
+    <t>Francisco Luna</t>
+  </si>
+  <si>
+    <t>Jessica Nguyen</t>
+  </si>
+  <si>
+    <t>Debra Nelson</t>
+  </si>
+  <si>
+    <t>Melissa Howard</t>
+  </si>
+  <si>
+    <t>Andrew Rosario</t>
+  </si>
+  <si>
+    <t>Kristin Quinn</t>
+  </si>
+  <si>
+    <t>Stacy Johnson</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Ashley Barnes</t>
+  </si>
+  <si>
+    <t>Sabrina Delgado</t>
+  </si>
+  <si>
+    <t>Abigail Beard</t>
+  </si>
+  <si>
+    <t>Shelly Harris</t>
+  </si>
+  <si>
+    <t>Kyle Garcia</t>
+  </si>
+  <si>
+    <t>Jared Jacobs</t>
+  </si>
+  <si>
+    <t>Terry Lawson</t>
+  </si>
+  <si>
+    <t>Michael Mora</t>
+  </si>
+  <si>
+    <t>Dennis Webb</t>
+  </si>
+  <si>
+    <t>Matthew Allen</t>
+  </si>
+  <si>
+    <t>Stephen Perez</t>
+  </si>
+  <si>
+    <t>Ashley Cunningham</t>
+  </si>
+  <si>
+    <t>Daniel Finley</t>
+  </si>
+  <si>
+    <t>Madison Duncan</t>
+  </si>
+  <si>
+    <t>Jennifer Carr</t>
+  </si>
+  <si>
+    <t>Brendan Sandoval</t>
+  </si>
+  <si>
+    <t>Tracy Rios</t>
+  </si>
+  <si>
+    <t>Michael Reid</t>
+  </si>
+  <si>
+    <t>Rebecca Brown</t>
+  </si>
+  <si>
+    <t>Mr. Eric Rodriguez</t>
+  </si>
+  <si>
+    <t>Brittany Russell</t>
+  </si>
+  <si>
+    <t>Elaine Bell</t>
+  </si>
+  <si>
+    <t>Courtney Turner</t>
+  </si>
+  <si>
+    <t>Amanda Campos</t>
+  </si>
+  <si>
+    <t>Christopher Mason</t>
+  </si>
+  <si>
+    <t>Christopher Yu</t>
+  </si>
+  <si>
+    <t>Dillon Aguirre</t>
+  </si>
+  <si>
+    <t>Andrew Clay</t>
+  </si>
+  <si>
+    <t>Theresa Reynolds</t>
+  </si>
+  <si>
+    <t>Scott Walsh</t>
+  </si>
+  <si>
+    <t>Jennifer Thomas</t>
+  </si>
+  <si>
+    <t>Catherine Walters</t>
+  </si>
+  <si>
+    <t>Brittany Wilson</t>
+  </si>
+  <si>
+    <t>Melissa Armstrong</t>
+  </si>
+  <si>
+    <t>Jeremy Mcgee</t>
+  </si>
+  <si>
+    <t>Paula Wyatt</t>
+  </si>
+  <si>
+    <t>Ricky Ellis</t>
+  </si>
+  <si>
+    <t>Ryan Marshall</t>
+  </si>
+  <si>
+    <t>Kenneth Walker</t>
+  </si>
+  <si>
+    <t>Mr. Christopher Taylor</t>
+  </si>
+  <si>
+    <t>Kristen Harris</t>
+  </si>
+  <si>
+    <t>Elaine Torres</t>
+  </si>
+  <si>
+    <t>George Miller</t>
+  </si>
+  <si>
+    <t>Troy Barry</t>
+  </si>
+  <si>
+    <t>Bobby Cooper</t>
+  </si>
+  <si>
+    <t>Mitchell Carpenter</t>
+  </si>
+  <si>
+    <t>Samuel Martinez</t>
+  </si>
+  <si>
+    <t>Martin Edwards</t>
+  </si>
+  <si>
+    <t>Peter Lopez</t>
+  </si>
+  <si>
+    <t>Matthew Page</t>
+  </si>
+  <si>
+    <t>Katherine Gardner</t>
+  </si>
+  <si>
+    <t>Debra Scott</t>
+  </si>
+  <si>
+    <t>Theodore Moore</t>
+  </si>
+  <si>
+    <t>Nicole Chase</t>
+  </si>
+  <si>
+    <t>Lisa Young</t>
+  </si>
+  <si>
+    <t>Kristine Benton</t>
+  </si>
+  <si>
+    <t>Jason Johnson</t>
+  </si>
+  <si>
+    <t>Lisa Jarvis</t>
+  </si>
+  <si>
+    <t>Tonya Hart</t>
+  </si>
+  <si>
+    <t>Diamond James</t>
+  </si>
+  <si>
+    <t>Maria Green</t>
+  </si>
+  <si>
+    <t>Misty Lucas</t>
+  </si>
+  <si>
+    <t>Morgan Sanchez</t>
+  </si>
+  <si>
+    <t>Heather Leonard</t>
+  </si>
+  <si>
+    <t>Christine Cook</t>
+  </si>
+  <si>
+    <t>Rachel Rodriguez</t>
+  </si>
+  <si>
+    <t>Garrett Snyder</t>
+  </si>
+  <si>
+    <t>Chris Walker</t>
+  </si>
+  <si>
+    <t>Anna Estrada</t>
+  </si>
+  <si>
+    <t>Benjamin Davidson</t>
+  </si>
+  <si>
+    <t>Kathy Compton MD</t>
+  </si>
+  <si>
+    <t>Angela Bush</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Michael Wells</t>
+  </si>
+  <si>
+    <t>Caitlin Jensen</t>
+  </si>
+  <si>
+    <t>Valerie Thompson</t>
+  </si>
+  <si>
+    <t>Antonio Bishop</t>
+  </si>
+  <si>
+    <t>Peggy Shaffer</t>
+  </si>
+  <si>
+    <t>David Thompson</t>
+  </si>
+  <si>
+    <t>Ellen Holland</t>
+  </si>
+  <si>
+    <t>Sophia Gonzalez</t>
+  </si>
+  <si>
+    <t>Madison Buckley</t>
+  </si>
+  <si>
+    <t>Vincent Chavez</t>
+  </si>
+  <si>
+    <t>Anthony Andrews</t>
+  </si>
+  <si>
+    <t>Leroy Jones</t>
+  </si>
+  <si>
+    <t>Phillip Bernard</t>
+  </si>
+  <si>
+    <t>Jeffrey Lee</t>
+  </si>
+  <si>
+    <t>Janice Hughes</t>
+  </si>
+  <si>
+    <t>Shawn Porter</t>
+  </si>
+  <si>
+    <t>Stephanie Allen</t>
+  </si>
+  <si>
+    <t>Sue Galvan</t>
+  </si>
+  <si>
+    <t>Michael Russell</t>
+  </si>
+  <si>
+    <t>Ms. Amanda Morris</t>
+  </si>
+  <si>
+    <t>Julie Wood</t>
+  </si>
+  <si>
+    <t>Stacy Brown</t>
+  </si>
+  <si>
+    <t>Ian Myers</t>
+  </si>
+  <si>
+    <t>Mark Holmes</t>
+  </si>
+  <si>
+    <t>Anthony Thomas</t>
+  </si>
+  <si>
+    <t>Sarah Hayes</t>
+  </si>
+  <si>
+    <t>Noah Nelson</t>
   </si>
   <si>
     <t>Erin Jones</t>
   </si>
   <si>
-    <t>Robert Webb</t>
-  </si>
-  <si>
-    <t>Rachel Brooks</t>
-  </si>
-  <si>
-    <t>Jordan Fox</t>
-  </si>
-  <si>
-    <t>Brandy Blackwell</t>
+    <t>Jeffrey Castro</t>
+  </si>
+  <si>
+    <t>Benjamin Pacheco</t>
+  </si>
+  <si>
+    <t>Marcus Hill</t>
+  </si>
+  <si>
+    <t>Jacqueline Morrow</t>
+  </si>
+  <si>
+    <t>Dylan Potter</t>
+  </si>
+  <si>
+    <t>Taylor Warner</t>
+  </si>
+  <si>
+    <t>Victor Bauer DVM</t>
+  </si>
+  <si>
+    <t>Bryan Goodwin</t>
+  </si>
+  <si>
+    <t>Dana Page</t>
+  </si>
+  <si>
+    <t>Amanda Simpson</t>
+  </si>
+  <si>
+    <t>Daniel Perry</t>
+  </si>
+  <si>
+    <t>Robert Martinez</t>
+  </si>
+  <si>
+    <t>Jeremy Little</t>
+  </si>
+  <si>
+    <t>Patricia Rodriguez</t>
+  </si>
+  <si>
+    <t>Antonio Griffin</t>
+  </si>
+  <si>
+    <t>Jeremy Jones</t>
+  </si>
+  <si>
+    <t>Lindsey Peterson</t>
+  </si>
+  <si>
+    <t>Danielle Robinson</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Lisa Williams</t>
+  </si>
+  <si>
+    <t>Nancy Cooley</t>
+  </si>
+  <si>
+    <t>Alicia Thomas</t>
+  </si>
+  <si>
+    <t>Autumn Reese</t>
+  </si>
+  <si>
+    <t>Michele Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Kayla Lucero</t>
+  </si>
+  <si>
+    <t>Valerie Anderson</t>
+  </si>
+  <si>
+    <t>Rebecca Kelley</t>
+  </si>
+  <si>
+    <t>Dawn Boyd</t>
+  </si>
+  <si>
+    <t>Mary Barry</t>
+  </si>
+  <si>
+    <t>Nicole Wagner</t>
+  </si>
+  <si>
+    <t>Evelyn Lee</t>
+  </si>
+  <si>
+    <t>Natalie Diaz</t>
+  </si>
+  <si>
+    <t>Earl Olson</t>
+  </si>
+  <si>
+    <t>Thomas Kline</t>
+  </si>
+  <si>
+    <t>Amber Hartman</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>Christy Perry</t>
+  </si>
+  <si>
+    <t>Katie Rice</t>
+  </si>
+  <si>
+    <t>James Martinez</t>
+  </si>
+  <si>
+    <t>Ronald Galvan</t>
+  </si>
+  <si>
+    <t>Ashley Bowers</t>
+  </si>
+  <si>
+    <t>Michael Dickerson</t>
+  </si>
+  <si>
+    <t>Christopher Clark</t>
+  </si>
+  <si>
+    <t>James Fritz</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Jennifer Carrillo</t>
+  </si>
+  <si>
+    <t>Melissa Martinez</t>
+  </si>
+  <si>
+    <t>Alan Carr</t>
+  </si>
+  <si>
+    <t>Michelle Dennis</t>
+  </si>
+  <si>
+    <t>Amanda Jones</t>
+  </si>
+  <si>
+    <t>Kelsey Gaines</t>
+  </si>
+  <si>
+    <t>Anthony Phillips</t>
+  </si>
+  <si>
+    <t>Patricia Erickson</t>
+  </si>
+  <si>
+    <t>Raymond Jackson</t>
+  </si>
+  <si>
+    <t>Eric Smith</t>
+  </si>
+  <si>
+    <t>Steven Lawrence</t>
+  </si>
+  <si>
+    <t>Anthony Todd</t>
+  </si>
+  <si>
+    <t>Jacqueline Hull</t>
+  </si>
+  <si>
+    <t>Richard Hardy</t>
+  </si>
+  <si>
+    <t>Marcus Sharp</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Stanley</t>
+  </si>
+  <si>
+    <t>Christina Wallace</t>
+  </si>
+  <si>
+    <t>Joseph Hernandez</t>
+  </si>
+  <si>
+    <t>Christopher Jimenez</t>
+  </si>
+  <si>
+    <t>Samuel Atkinson</t>
+  </si>
+  <si>
+    <t>William Thomas</t>
+  </si>
+  <si>
+    <t>Austin Scott</t>
+  </si>
+  <si>
+    <t>Travis Henderson</t>
   </si>
   <si>
     <t>TSE</t>
@@ -2342,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2379,13 +2175,13 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="F2">
-        <v>380775</v>
+        <v>225254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2399,13 +2195,13 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="F3">
-        <v>690024</v>
+        <v>158230</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2419,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="F4">
-        <v>351474</v>
+        <v>974014</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2439,13 +2235,10 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
-      </c>
-      <c r="F5">
-        <v>302863</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2459,13 +2252,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>656</v>
-      </c>
-      <c r="F6">
-        <v>306204</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2479,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2496,10 +2286,10 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2513,10 +2303,10 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2530,10 +2320,10 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2547,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2564,27 +2354,27 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2598,10 +2388,10 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2615,10 +2405,10 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="E15" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2632,10 +2422,10 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2649,10 +2439,10 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="E17" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2666,10 +2456,10 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2683,10 +2473,10 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2700,10 +2490,10 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="E20" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2717,10 +2507,10 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2734,10 +2524,10 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="E22" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2751,10 +2541,10 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E23" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2768,10 +2558,10 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2785,10 +2575,10 @@
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2802,112 +2592,112 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="E26" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="E27" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="E28" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="E30" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="E31" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="E32" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2921,10 +2711,10 @@
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="E33" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2938,10 +2728,10 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="E34" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2955,10 +2745,10 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E35" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2972,10 +2762,10 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2989,10 +2779,10 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="E37" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3006,10 +2796,10 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="E38" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3023,163 +2813,163 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="E40" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="E41" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="E43" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="E44" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3193,10 +2983,10 @@
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="E49" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3210,10 +3000,10 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3227,10 +3017,10 @@
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3244,10 +3034,10 @@
         <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3261,10 +3051,10 @@
         <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="E53" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3278,10 +3068,10 @@
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3295,10 +3085,10 @@
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3312,10 +3102,10 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3329,146 +3119,146 @@
         <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="E59" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3482,10 +3272,10 @@
         <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="E66" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3499,10 +3289,10 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3516,10 +3306,10 @@
         <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3533,10 +3323,10 @@
         <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3550,163 +3340,163 @@
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="E71" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="E75" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="E76" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="E77" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="E78" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="E79" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3720,10 +3510,10 @@
         <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="E80" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3737,10 +3527,10 @@
         <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3754,10 +3544,10 @@
         <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3771,10 +3561,10 @@
         <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3788,10 +3578,10 @@
         <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="E84" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3805,214 +3595,214 @@
         <v>129</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="E85" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="E86" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="E87" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="E88" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="E91" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="E92" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="E94" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
         <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="E97" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4026,10 +3816,10 @@
         <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="E98" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4043,10 +3833,10 @@
         <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4060,10 +3850,10 @@
         <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E100" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4077,10 +3867,10 @@
         <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4094,10 +3884,10 @@
         <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="E102" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4111,10 +3901,10 @@
         <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="E103" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4128,27 +3918,27 @@
         <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4162,10 +3952,10 @@
         <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4179,10 +3969,10 @@
         <v>151</v>
       </c>
       <c r="D107" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="E107" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4196,10 +3986,10 @@
         <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="E108" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4213,10 +4003,10 @@
         <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="E109" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4230,10 +4020,10 @@
         <v>154</v>
       </c>
       <c r="D110" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="E110" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4247,10 +4037,10 @@
         <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E111" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4264,10 +4054,10 @@
         <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4281,95 +4071,95 @@
         <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="E113" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
         <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="E114" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
         <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="E115" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
         <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
         <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="E117" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
         <v>162</v>
       </c>
       <c r="D118" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="E118" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4383,10 +4173,10 @@
         <v>163</v>
       </c>
       <c r="D119" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4400,10 +4190,10 @@
         <v>164</v>
       </c>
       <c r="D120" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="E120" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4417,10 +4207,10 @@
         <v>165</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="E121" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4434,10 +4224,10 @@
         <v>166</v>
       </c>
       <c r="D122" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="E122" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4451,10 +4241,10 @@
         <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4468,10 +4258,10 @@
         <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="E124" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4485,146 +4275,146 @@
         <v>169</v>
       </c>
       <c r="D125" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="E125" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E126" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>171</v>
       </c>
       <c r="D127" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="E127" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>172</v>
       </c>
       <c r="D128" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="E128" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>173</v>
       </c>
       <c r="D129" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="E129" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>174</v>
       </c>
       <c r="D130" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="E130" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>175</v>
       </c>
       <c r="D131" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="E131" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
         <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="E133" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4638,10 +4428,10 @@
         <v>178</v>
       </c>
       <c r="D134" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="E134" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4655,10 +4445,10 @@
         <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="E135" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4672,10 +4462,10 @@
         <v>180</v>
       </c>
       <c r="D136" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="E136" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4689,2900 +4479,2305 @@
         <v>181</v>
       </c>
       <c r="D137" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="E137" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
         <v>182</v>
       </c>
       <c r="D138" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="E138" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
         <v>183</v>
       </c>
       <c r="D139" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E139" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
         <v>184</v>
       </c>
       <c r="D140" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="E140" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>185</v>
       </c>
       <c r="D141" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E141" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
         <v>186</v>
       </c>
       <c r="D142" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="E142" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
         <v>187</v>
       </c>
       <c r="D143" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="E143" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
         <v>188</v>
       </c>
       <c r="D144" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E144" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
         <v>189</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="E145" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
         <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="E146" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
         <v>191</v>
       </c>
       <c r="D147" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="E147" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
         <v>192</v>
       </c>
       <c r="D148" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="E148" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
         <v>193</v>
       </c>
       <c r="D149" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="E149" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
         <v>194</v>
       </c>
       <c r="D150" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="E150" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
         <v>195</v>
       </c>
       <c r="D151" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
         <v>196</v>
       </c>
       <c r="D152" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="E152" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>197</v>
       </c>
       <c r="D153" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E153" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
         <v>198</v>
       </c>
       <c r="D154" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="E154" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
         <v>199</v>
       </c>
       <c r="D155" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="E155" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>200</v>
       </c>
       <c r="D156" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="E156" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>201</v>
       </c>
       <c r="D157" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="E157" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
         <v>202</v>
       </c>
       <c r="D158" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="E158" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C159" t="s">
         <v>203</v>
       </c>
       <c r="D159" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="E159" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
         <v>204</v>
       </c>
       <c r="D160" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C161" t="s">
         <v>205</v>
       </c>
       <c r="D161" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="E161" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
         <v>206</v>
       </c>
       <c r="D162" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="E162" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
         <v>207</v>
       </c>
       <c r="D163" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="E163" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C164" t="s">
         <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="E164" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
         <v>209</v>
       </c>
       <c r="D165" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="E165" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C166" t="s">
         <v>210</v>
       </c>
       <c r="D166" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="E166" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C167" t="s">
         <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="E167" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
         <v>212</v>
       </c>
       <c r="D168" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="E168" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C169" t="s">
         <v>213</v>
       </c>
       <c r="D169" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="E169" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s">
         <v>214</v>
       </c>
       <c r="D170" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="E170" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s">
         <v>215</v>
       </c>
       <c r="D171" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="E171" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
         <v>216</v>
       </c>
       <c r="D172" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="E172" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C173" t="s">
         <v>217</v>
       </c>
       <c r="D173" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="E173" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s">
         <v>218</v>
       </c>
       <c r="D174" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="E174" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s">
         <v>219</v>
       </c>
       <c r="D175" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="E175" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
         <v>220</v>
       </c>
       <c r="D176" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="E176" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
         <v>221</v>
       </c>
       <c r="D177" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="E177" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C178" t="s">
         <v>222</v>
       </c>
       <c r="D178" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="E178" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
         <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="E179" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
         <v>224</v>
       </c>
       <c r="D180" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="E180" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>225</v>
       </c>
       <c r="D181" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="E181" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
         <v>226</v>
       </c>
       <c r="D182" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="E182" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>227</v>
       </c>
       <c r="D183" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="E183" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>228</v>
       </c>
       <c r="D184" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E184" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="E185" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
         <v>230</v>
       </c>
       <c r="D186" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="E186" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
         <v>231</v>
       </c>
       <c r="D187" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="E187" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
         <v>232</v>
       </c>
       <c r="D188" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="E188" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
         <v>233</v>
       </c>
       <c r="D189" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="E189" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
         <v>234</v>
       </c>
       <c r="D190" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="E190" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C191" t="s">
         <v>235</v>
       </c>
       <c r="D191" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E191" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="E192" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
         <v>237</v>
       </c>
       <c r="D193" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="E193" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C194" t="s">
         <v>238</v>
       </c>
       <c r="D194" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="E194" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
         <v>239</v>
       </c>
       <c r="D195" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="E195" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
         <v>240</v>
       </c>
       <c r="D196" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="E196" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
         <v>241</v>
       </c>
       <c r="D197" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E197" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
         <v>242</v>
       </c>
       <c r="D198" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="E198" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
         <v>243</v>
       </c>
       <c r="D199" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="E199" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C200" t="s">
         <v>244</v>
       </c>
       <c r="D200" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="E200" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
         <v>245</v>
       </c>
       <c r="D201" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="E201" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C202" t="s">
         <v>246</v>
       </c>
       <c r="D202" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="E202" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
         <v>247</v>
       </c>
       <c r="D203" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="E203" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
         <v>248</v>
       </c>
       <c r="D204" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="E204" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
         <v>249</v>
       </c>
       <c r="D205" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="E205" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C206" t="s">
         <v>250</v>
       </c>
       <c r="D206" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="E206" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
         <v>251</v>
       </c>
       <c r="D207" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="E207" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C208" t="s">
         <v>252</v>
       </c>
       <c r="D208" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="E208" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
         <v>253</v>
       </c>
       <c r="D209" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="E209" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
         <v>254</v>
       </c>
       <c r="D210" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="E210" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C211" t="s">
         <v>255</v>
       </c>
       <c r="D211" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="E211" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B212" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C212" t="s">
         <v>256</v>
       </c>
       <c r="D212" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="E212" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C213" t="s">
         <v>257</v>
       </c>
       <c r="D213" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="E213" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C214" t="s">
         <v>258</v>
       </c>
       <c r="D214" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="E214" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C215" t="s">
         <v>259</v>
       </c>
       <c r="D215" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="E215" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C216" t="s">
         <v>260</v>
       </c>
       <c r="D216" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="E216" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C217" t="s">
         <v>261</v>
       </c>
       <c r="D217" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="E217" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C218" t="s">
         <v>262</v>
       </c>
       <c r="D218" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="E218" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
         <v>263</v>
       </c>
       <c r="D219" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="E219" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C220" t="s">
         <v>264</v>
       </c>
       <c r="D220" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="E220" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B221" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
         <v>265</v>
       </c>
       <c r="D221" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="E221" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B222" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
         <v>266</v>
       </c>
       <c r="D222" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="E222" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B223" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s">
         <v>267</v>
       </c>
       <c r="D223" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="E223" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B224" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C224" t="s">
         <v>268</v>
       </c>
       <c r="D224" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="E224" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C225" t="s">
         <v>269</v>
       </c>
       <c r="D225" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="E225" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B226" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
         <v>270</v>
       </c>
       <c r="D226" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="E226" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s">
         <v>271</v>
       </c>
       <c r="D227" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="E227" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
         <v>272</v>
       </c>
       <c r="D228" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="E228" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B229" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
         <v>273</v>
       </c>
       <c r="D229" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="E229" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B230" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C230" t="s">
         <v>274</v>
       </c>
       <c r="D230" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="E230" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s">
         <v>275</v>
       </c>
       <c r="D231" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="E231" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s">
         <v>276</v>
       </c>
       <c r="D232" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="E232" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C233" t="s">
         <v>277</v>
       </c>
       <c r="D233" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="E233" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C234" t="s">
         <v>278</v>
       </c>
       <c r="D234" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="E234" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C235" t="s">
         <v>279</v>
       </c>
       <c r="D235" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="E235" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C236" t="s">
         <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="E236" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C237" t="s">
         <v>281</v>
       </c>
       <c r="D237" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="E237" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B238" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
         <v>282</v>
       </c>
       <c r="D238" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="E238" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C239" t="s">
         <v>283</v>
       </c>
       <c r="D239" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="E239" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C240" t="s">
         <v>284</v>
       </c>
       <c r="D240" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="E240" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
         <v>285</v>
       </c>
       <c r="D241" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="E241" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C242" t="s">
         <v>286</v>
       </c>
       <c r="D242" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="E242" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C243" t="s">
         <v>287</v>
       </c>
       <c r="D243" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="E243" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C244" t="s">
         <v>288</v>
       </c>
       <c r="D244" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="E244" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C245" t="s">
         <v>289</v>
       </c>
       <c r="D245" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="E245" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
         <v>290</v>
       </c>
       <c r="D246" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="E246" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
         <v>291</v>
       </c>
       <c r="D247" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="E247" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
         <v>292</v>
       </c>
       <c r="D248" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="E248" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C249" t="s">
         <v>293</v>
       </c>
       <c r="D249" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="E249" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C250" t="s">
         <v>294</v>
       </c>
       <c r="D250" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="E250" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C251" t="s">
         <v>295</v>
       </c>
       <c r="D251" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="E251" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B252" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C252" t="s">
         <v>296</v>
       </c>
       <c r="D252" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="E252" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C253" t="s">
         <v>297</v>
       </c>
       <c r="D253" t="s">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="E253" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C254" t="s">
         <v>298</v>
       </c>
       <c r="D254" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="E254" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B255" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C255" t="s">
         <v>299</v>
       </c>
       <c r="D255" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="E255" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B256" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C256" t="s">
         <v>300</v>
       </c>
       <c r="D256" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="E256" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B257" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C257" t="s">
         <v>301</v>
       </c>
       <c r="D257" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="E257" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B258" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C258" t="s">
         <v>302</v>
       </c>
       <c r="D258" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="E258" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C259" t="s">
         <v>303</v>
       </c>
       <c r="D259" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="E259" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C260" t="s">
         <v>304</v>
       </c>
       <c r="D260" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="E260" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C261" t="s">
         <v>305</v>
       </c>
       <c r="D261" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="E261" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C262" t="s">
         <v>306</v>
       </c>
       <c r="D262" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="E262" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B263" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C263" t="s">
         <v>307</v>
       </c>
       <c r="D263" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="E263" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
         <v>308</v>
       </c>
       <c r="D264" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="E264" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B265" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C265" t="s">
         <v>309</v>
       </c>
       <c r="D265" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="E265" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C266" t="s">
         <v>310</v>
       </c>
       <c r="D266" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="E266" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C267" t="s">
         <v>311</v>
       </c>
       <c r="D267" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="E267" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B268" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C268" t="s">
         <v>312</v>
       </c>
       <c r="D268" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="E268" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C269" t="s">
         <v>313</v>
       </c>
       <c r="D269" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="E269" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C270" t="s">
         <v>314</v>
       </c>
       <c r="D270" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="E270" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C271" t="s">
         <v>315</v>
       </c>
       <c r="D271" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="E271" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C272" t="s">
         <v>316</v>
       </c>
       <c r="D272" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="E272" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>23</v>
-      </c>
-      <c r="B273" t="s">
-        <v>43</v>
-      </c>
-      <c r="C273" t="s">
-        <v>317</v>
-      </c>
-      <c r="D273" t="s">
-        <v>621</v>
-      </c>
-      <c r="E273" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>23</v>
-      </c>
-      <c r="B274" t="s">
-        <v>43</v>
-      </c>
-      <c r="C274" t="s">
-        <v>318</v>
-      </c>
-      <c r="D274" t="s">
-        <v>622</v>
-      </c>
-      <c r="E274" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>24</v>
-      </c>
-      <c r="B275" t="s">
-        <v>44</v>
-      </c>
-      <c r="C275" t="s">
-        <v>319</v>
-      </c>
-      <c r="D275" t="s">
-        <v>623</v>
-      </c>
-      <c r="E275" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" t="s">
-        <v>24</v>
-      </c>
-      <c r="B276" t="s">
-        <v>44</v>
-      </c>
-      <c r="C276" t="s">
-        <v>320</v>
-      </c>
-      <c r="D276" t="s">
-        <v>624</v>
-      </c>
-      <c r="E276" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" t="s">
-        <v>24</v>
-      </c>
-      <c r="B277" t="s">
-        <v>44</v>
-      </c>
-      <c r="C277" t="s">
-        <v>321</v>
-      </c>
-      <c r="D277" t="s">
-        <v>625</v>
-      </c>
-      <c r="E277" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" t="s">
-        <v>24</v>
-      </c>
-      <c r="B278" t="s">
-        <v>44</v>
-      </c>
-      <c r="C278" t="s">
-        <v>322</v>
-      </c>
-      <c r="D278" t="s">
-        <v>626</v>
-      </c>
-      <c r="E278" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" t="s">
-        <v>24</v>
-      </c>
-      <c r="B279" t="s">
-        <v>44</v>
-      </c>
-      <c r="C279" t="s">
-        <v>323</v>
-      </c>
-      <c r="D279" t="s">
-        <v>627</v>
-      </c>
-      <c r="E279" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" t="s">
-        <v>24</v>
-      </c>
-      <c r="B280" t="s">
-        <v>44</v>
-      </c>
-      <c r="C280" t="s">
-        <v>324</v>
-      </c>
-      <c r="D280" t="s">
-        <v>628</v>
-      </c>
-      <c r="E280" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" t="s">
-        <v>24</v>
-      </c>
-      <c r="B281" t="s">
-        <v>44</v>
-      </c>
-      <c r="C281" t="s">
-        <v>325</v>
-      </c>
-      <c r="D281" t="s">
-        <v>629</v>
-      </c>
-      <c r="E281" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" t="s">
-        <v>24</v>
-      </c>
-      <c r="B282" t="s">
-        <v>44</v>
-      </c>
-      <c r="C282" t="s">
-        <v>326</v>
-      </c>
-      <c r="D282" t="s">
-        <v>630</v>
-      </c>
-      <c r="E282" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" t="s">
-        <v>24</v>
-      </c>
-      <c r="B283" t="s">
-        <v>44</v>
-      </c>
-      <c r="C283" t="s">
-        <v>327</v>
-      </c>
-      <c r="D283" t="s">
-        <v>631</v>
-      </c>
-      <c r="E283" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" t="s">
-        <v>24</v>
-      </c>
-      <c r="B284" t="s">
-        <v>44</v>
-      </c>
-      <c r="C284" t="s">
-        <v>328</v>
-      </c>
-      <c r="D284" t="s">
-        <v>632</v>
-      </c>
-      <c r="E284" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" t="s">
-        <v>24</v>
-      </c>
-      <c r="B285" t="s">
-        <v>44</v>
-      </c>
-      <c r="C285" t="s">
-        <v>329</v>
-      </c>
-      <c r="D285" t="s">
-        <v>633</v>
-      </c>
-      <c r="E285" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" t="s">
-        <v>24</v>
-      </c>
-      <c r="B286" t="s">
-        <v>44</v>
-      </c>
-      <c r="C286" t="s">
-        <v>330</v>
-      </c>
-      <c r="D286" t="s">
-        <v>634</v>
-      </c>
-      <c r="E286" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" t="s">
-        <v>24</v>
-      </c>
-      <c r="B287" t="s">
-        <v>44</v>
-      </c>
-      <c r="C287" t="s">
-        <v>331</v>
-      </c>
-      <c r="D287" t="s">
-        <v>635</v>
-      </c>
-      <c r="E287" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" t="s">
-        <v>24</v>
-      </c>
-      <c r="B288" t="s">
-        <v>44</v>
-      </c>
-      <c r="C288" t="s">
-        <v>332</v>
-      </c>
-      <c r="D288" t="s">
-        <v>636</v>
-      </c>
-      <c r="E288" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" t="s">
-        <v>24</v>
-      </c>
-      <c r="B289" t="s">
-        <v>44</v>
-      </c>
-      <c r="C289" t="s">
-        <v>333</v>
-      </c>
-      <c r="D289" t="s">
-        <v>637</v>
-      </c>
-      <c r="E289" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" t="s">
-        <v>24</v>
-      </c>
-      <c r="B290" t="s">
-        <v>44</v>
-      </c>
-      <c r="C290" t="s">
-        <v>334</v>
-      </c>
-      <c r="D290" t="s">
-        <v>638</v>
-      </c>
-      <c r="E290" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" t="s">
-        <v>24</v>
-      </c>
-      <c r="B291" t="s">
-        <v>44</v>
-      </c>
-      <c r="C291" t="s">
-        <v>335</v>
-      </c>
-      <c r="D291" t="s">
-        <v>639</v>
-      </c>
-      <c r="E291" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" t="s">
-        <v>25</v>
-      </c>
-      <c r="B292" t="s">
-        <v>45</v>
-      </c>
-      <c r="C292" t="s">
-        <v>336</v>
-      </c>
-      <c r="D292" t="s">
-        <v>640</v>
-      </c>
-      <c r="E292" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" t="s">
-        <v>25</v>
-      </c>
-      <c r="B293" t="s">
-        <v>45</v>
-      </c>
-      <c r="C293" t="s">
-        <v>337</v>
-      </c>
-      <c r="D293" t="s">
-        <v>641</v>
-      </c>
-      <c r="E293" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" t="s">
-        <v>25</v>
-      </c>
-      <c r="B294" t="s">
-        <v>45</v>
-      </c>
-      <c r="C294" t="s">
-        <v>338</v>
-      </c>
-      <c r="D294" t="s">
-        <v>642</v>
-      </c>
-      <c r="E294" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" t="s">
-        <v>25</v>
-      </c>
-      <c r="B295" t="s">
-        <v>45</v>
-      </c>
-      <c r="C295" t="s">
-        <v>339</v>
-      </c>
-      <c r="D295" t="s">
-        <v>643</v>
-      </c>
-      <c r="E295" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" t="s">
-        <v>25</v>
-      </c>
-      <c r="B296" t="s">
-        <v>45</v>
-      </c>
-      <c r="C296" t="s">
-        <v>340</v>
-      </c>
-      <c r="D296" t="s">
-        <v>644</v>
-      </c>
-      <c r="E296" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" t="s">
-        <v>25</v>
-      </c>
-      <c r="B297" t="s">
-        <v>45</v>
-      </c>
-      <c r="C297" t="s">
-        <v>341</v>
-      </c>
-      <c r="D297" t="s">
-        <v>645</v>
-      </c>
-      <c r="E297" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" t="s">
-        <v>25</v>
-      </c>
-      <c r="B298" t="s">
-        <v>45</v>
-      </c>
-      <c r="C298" t="s">
-        <v>342</v>
-      </c>
-      <c r="D298" t="s">
-        <v>646</v>
-      </c>
-      <c r="E298" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" t="s">
-        <v>25</v>
-      </c>
-      <c r="B299" t="s">
-        <v>45</v>
-      </c>
-      <c r="C299" t="s">
-        <v>343</v>
-      </c>
-      <c r="D299" t="s">
-        <v>647</v>
-      </c>
-      <c r="E299" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" t="s">
-        <v>25</v>
-      </c>
-      <c r="B300" t="s">
-        <v>45</v>
-      </c>
-      <c r="C300" t="s">
-        <v>344</v>
-      </c>
-      <c r="D300" t="s">
-        <v>648</v>
-      </c>
-      <c r="E300" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" t="s">
-        <v>25</v>
-      </c>
-      <c r="B301" t="s">
-        <v>45</v>
-      </c>
-      <c r="C301" t="s">
-        <v>345</v>
-      </c>
-      <c r="D301" t="s">
-        <v>649</v>
-      </c>
-      <c r="E301" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" t="s">
-        <v>25</v>
-      </c>
-      <c r="B302" t="s">
-        <v>45</v>
-      </c>
-      <c r="C302" t="s">
-        <v>346</v>
-      </c>
-      <c r="D302" t="s">
-        <v>650</v>
-      </c>
-      <c r="E302" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" t="s">
-        <v>25</v>
-      </c>
-      <c r="B303" t="s">
-        <v>45</v>
-      </c>
-      <c r="C303" t="s">
-        <v>347</v>
-      </c>
-      <c r="D303" t="s">
-        <v>651</v>
-      </c>
-      <c r="E303" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" t="s">
-        <v>25</v>
-      </c>
-      <c r="B304" t="s">
-        <v>45</v>
-      </c>
-      <c r="C304" t="s">
-        <v>348</v>
-      </c>
-      <c r="D304" t="s">
-        <v>652</v>
-      </c>
-      <c r="E304" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" t="s">
-        <v>25</v>
-      </c>
-      <c r="B305" t="s">
-        <v>45</v>
-      </c>
-      <c r="C305" t="s">
-        <v>349</v>
-      </c>
-      <c r="D305" t="s">
-        <v>653</v>
-      </c>
-      <c r="E305" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" t="s">
-        <v>25</v>
-      </c>
-      <c r="B306" t="s">
-        <v>45</v>
-      </c>
-      <c r="C306" t="s">
-        <v>350</v>
-      </c>
-      <c r="D306" t="s">
-        <v>654</v>
-      </c>
-      <c r="E306" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" t="s">
-        <v>25</v>
-      </c>
-      <c r="B307" t="s">
-        <v>45</v>
-      </c>
-      <c r="C307" t="s">
-        <v>351</v>
-      </c>
-      <c r="D307" t="s">
-        <v>655</v>
-      </c>
-      <c r="E307" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/data/fakesystem/sys_TSE.xlsx
+++ b/data/fakesystem/sys_TSE.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\AUP Automata\data\fakesystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60996106-3A29-4F43-9F03-E6D1A373FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="592">
   <si>
     <t>Department</t>
   </si>
@@ -1781,13 +1787,22 @@
   </si>
   <si>
     <t>TSE</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>*DISABLED</t>
+  </si>
+  <si>
+    <t>*ENABLED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,7 +1827,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1835,13 +1850,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1850,13 +1879,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1894,7 +1931,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1928,6 +1965,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1962,9 +2000,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2137,14 +2176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,8 +2204,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2183,8 +2227,11 @@
       <c r="F2">
         <v>225254</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2203,8 +2250,11 @@
       <c r="F3">
         <v>158230</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2223,8 +2273,11 @@
       <c r="F4">
         <v>974014</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2240,8 +2293,11 @@
       <c r="E5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2257,8 +2313,11 @@
       <c r="E6" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2274,8 +2333,11 @@
       <c r="E7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2291,8 +2353,11 @@
       <c r="E8" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2308,8 +2373,11 @@
       <c r="E9" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2325,8 +2393,11 @@
       <c r="E10" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2342,8 +2413,11 @@
       <c r="E11" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2359,8 +2433,11 @@
       <c r="E12" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2376,8 +2453,11 @@
       <c r="E13" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2393,8 +2473,11 @@
       <c r="E14" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2493,11 @@
       <c r="E15" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2427,8 +2513,11 @@
       <c r="E16" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2444,8 +2533,11 @@
       <c r="E17" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2461,8 +2553,11 @@
       <c r="E18" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2478,8 +2573,11 @@
       <c r="E19" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2495,8 +2593,11 @@
       <c r="E20" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2512,8 +2613,11 @@
       <c r="E21" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2529,8 +2633,11 @@
       <c r="E22" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2546,8 +2653,11 @@
       <c r="E23" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2563,8 +2673,11 @@
       <c r="E24" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2580,8 +2693,11 @@
       <c r="E25" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2597,8 +2713,11 @@
       <c r="E26" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2614,8 +2733,11 @@
       <c r="E27" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2631,8 +2753,11 @@
       <c r="E28" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2648,8 +2773,11 @@
       <c r="E29" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2665,8 +2793,11 @@
       <c r="E30" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2682,8 +2813,11 @@
       <c r="E31" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2699,8 +2833,11 @@
       <c r="E32" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2716,8 +2853,11 @@
       <c r="E33" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2733,8 +2873,11 @@
       <c r="E34" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2750,8 +2893,11 @@
       <c r="E35" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2767,8 +2913,11 @@
       <c r="E36" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2784,8 +2933,11 @@
       <c r="E37" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2801,8 +2953,11 @@
       <c r="E38" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2973,11 @@
       <c r="E39" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2835,8 +2993,11 @@
       <c r="E40" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2852,8 +3013,11 @@
       <c r="E41" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2869,8 +3033,11 @@
       <c r="E42" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2886,8 +3053,11 @@
       <c r="E43" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2903,8 +3073,11 @@
       <c r="E44" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2920,8 +3093,11 @@
       <c r="E45" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2937,8 +3113,11 @@
       <c r="E46" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2954,8 +3133,11 @@
       <c r="E47" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2971,8 +3153,11 @@
       <c r="E48" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2988,8 +3173,11 @@
       <c r="E49" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3005,8 +3193,11 @@
       <c r="E50" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3022,8 +3213,11 @@
       <c r="E51" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3039,8 +3233,11 @@
       <c r="E52" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3056,8 +3253,11 @@
       <c r="E53" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3073,8 +3273,11 @@
       <c r="E54" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3090,8 +3293,11 @@
       <c r="E55" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3107,8 +3313,11 @@
       <c r="E56" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3124,8 +3333,11 @@
       <c r="E57" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3141,8 +3353,11 @@
       <c r="E58" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3158,8 +3373,11 @@
       <c r="E59" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3175,8 +3393,11 @@
       <c r="E60" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3192,8 +3413,11 @@
       <c r="E61" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3209,8 +3433,11 @@
       <c r="E62" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3226,8 +3453,11 @@
       <c r="E63" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3243,8 +3473,11 @@
       <c r="E64" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3260,8 +3493,11 @@
       <c r="E65" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="E66" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3294,8 +3533,11 @@
       <c r="E67" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3311,8 +3553,11 @@
       <c r="E68" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3328,8 +3573,11 @@
       <c r="E69" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3345,8 +3593,11 @@
       <c r="E70" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3362,8 +3613,11 @@
       <c r="E71" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3379,8 +3633,11 @@
       <c r="E72" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3396,8 +3653,11 @@
       <c r="E73" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3413,8 +3673,11 @@
       <c r="E74" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3430,8 +3693,11 @@
       <c r="E75" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3447,8 +3713,11 @@
       <c r="E76" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3464,8 +3733,11 @@
       <c r="E77" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3481,8 +3753,11 @@
       <c r="E78" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3498,8 +3773,11 @@
       <c r="E79" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3515,8 +3793,11 @@
       <c r="E80" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3532,8 +3813,11 @@
       <c r="E81" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3549,8 +3833,11 @@
       <c r="E82" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3566,8 +3853,11 @@
       <c r="E83" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3583,8 +3873,11 @@
       <c r="E84" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3600,8 +3893,11 @@
       <c r="E85" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +3913,11 @@
       <c r="E86" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3634,8 +3933,11 @@
       <c r="E87" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3651,8 +3953,11 @@
       <c r="E88" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3668,8 +3973,11 @@
       <c r="E89" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -3685,8 +3993,11 @@
       <c r="E90" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -3702,8 +4013,11 @@
       <c r="E91" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -3719,8 +4033,11 @@
       <c r="E92" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3736,8 +4053,11 @@
       <c r="E93" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3753,8 +4073,11 @@
       <c r="E94" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3770,8 +4093,11 @@
       <c r="E95" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -3787,8 +4113,11 @@
       <c r="E96" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -3804,8 +4133,11 @@
       <c r="E97" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -3821,8 +4153,11 @@
       <c r="E98" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -3838,8 +4173,11 @@
       <c r="E99" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3855,8 +4193,11 @@
       <c r="E100" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3872,8 +4213,11 @@
       <c r="E101" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -3889,8 +4233,11 @@
       <c r="E102" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -3906,8 +4253,11 @@
       <c r="E103" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -3923,8 +4273,11 @@
       <c r="E104" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -3940,8 +4293,11 @@
       <c r="E105" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -3957,8 +4313,11 @@
       <c r="E106" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3974,8 +4333,11 @@
       <c r="E107" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3991,8 +4353,11 @@
       <c r="E108" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -4008,8 +4373,11 @@
       <c r="E109" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -4025,8 +4393,11 @@
       <c r="E110" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -4042,8 +4413,11 @@
       <c r="E111" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -4059,8 +4433,11 @@
       <c r="E112" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -4076,8 +4453,11 @@
       <c r="E113" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -4093,8 +4473,11 @@
       <c r="E114" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -4110,8 +4493,11 @@
       <c r="E115" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -4127,8 +4513,11 @@
       <c r="E116" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -4144,8 +4533,11 @@
       <c r="E117" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -4161,8 +4553,11 @@
       <c r="E118" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -4178,8 +4573,11 @@
       <c r="E119" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="G119" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -4195,8 +4593,11 @@
       <c r="E120" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -4212,8 +4613,11 @@
       <c r="E121" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="G121" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -4229,8 +4633,11 @@
       <c r="E122" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -4246,8 +4653,11 @@
       <c r="E123" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4263,8 +4673,11 @@
       <c r="E124" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -4280,8 +4693,11 @@
       <c r="E125" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="G125" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -4297,8 +4713,11 @@
       <c r="E126" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="G126" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -4314,8 +4733,11 @@
       <c r="E127" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -4331,8 +4753,11 @@
       <c r="E128" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -4348,8 +4773,11 @@
       <c r="E129" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -4365,8 +4793,11 @@
       <c r="E130" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -4382,8 +4813,11 @@
       <c r="E131" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -4399,8 +4833,11 @@
       <c r="E132" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -4416,8 +4853,11 @@
       <c r="E133" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -4433,8 +4873,11 @@
       <c r="E134" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -4450,8 +4893,11 @@
       <c r="E135" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -4467,8 +4913,11 @@
       <c r="E136" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -4484,8 +4933,11 @@
       <c r="E137" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -4501,8 +4953,11 @@
       <c r="E138" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -4518,8 +4973,11 @@
       <c r="E139" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -4535,8 +4993,11 @@
       <c r="E140" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -4552,8 +5013,11 @@
       <c r="E141" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -4569,8 +5033,11 @@
       <c r="E142" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -4586,8 +5053,11 @@
       <c r="E143" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -4603,8 +5073,11 @@
       <c r="E144" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4620,8 +5093,11 @@
       <c r="E145" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -4637,8 +5113,11 @@
       <c r="E146" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -4654,8 +5133,11 @@
       <c r="E147" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4671,8 +5153,11 @@
       <c r="E148" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -4688,8 +5173,11 @@
       <c r="E149" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -4705,8 +5193,11 @@
       <c r="E150" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -4722,8 +5213,11 @@
       <c r="E151" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -4739,8 +5233,11 @@
       <c r="E152" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -4756,8 +5253,11 @@
       <c r="E153" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -4773,8 +5273,11 @@
       <c r="E154" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -4790,8 +5293,11 @@
       <c r="E155" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -4807,8 +5313,11 @@
       <c r="E156" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -4824,8 +5333,11 @@
       <c r="E157" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -4841,8 +5353,11 @@
       <c r="E158" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -4858,8 +5373,11 @@
       <c r="E159" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -4875,8 +5393,11 @@
       <c r="E160" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -4892,8 +5413,11 @@
       <c r="E161" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4909,8 +5433,11 @@
       <c r="E162" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -4926,8 +5453,11 @@
       <c r="E163" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4943,8 +5473,11 @@
       <c r="E164" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -4960,8 +5493,11 @@
       <c r="E165" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -4977,8 +5513,11 @@
       <c r="E166" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -4994,8 +5533,11 @@
       <c r="E167" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -5011,8 +5553,11 @@
       <c r="E168" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -5028,8 +5573,11 @@
       <c r="E169" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -5045,8 +5593,11 @@
       <c r="E170" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -5062,8 +5613,11 @@
       <c r="E171" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -5079,8 +5633,11 @@
       <c r="E172" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -5096,8 +5653,11 @@
       <c r="E173" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -5113,8 +5673,11 @@
       <c r="E174" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>18</v>
       </c>
@@ -5130,8 +5693,11 @@
       <c r="E175" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -5147,8 +5713,11 @@
       <c r="E176" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>18</v>
       </c>
@@ -5164,8 +5733,11 @@
       <c r="E177" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -5181,8 +5753,11 @@
       <c r="E178" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -5198,8 +5773,11 @@
       <c r="E179" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -5215,8 +5793,11 @@
       <c r="E180" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -5232,8 +5813,11 @@
       <c r="E181" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -5249,8 +5833,11 @@
       <c r="E182" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -5266,8 +5853,11 @@
       <c r="E183" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -5283,8 +5873,11 @@
       <c r="E184" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -5300,8 +5893,11 @@
       <c r="E185" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -5317,8 +5913,11 @@
       <c r="E186" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -5334,8 +5933,11 @@
       <c r="E187" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -5351,8 +5953,11 @@
       <c r="E188" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -5368,8 +5973,11 @@
       <c r="E189" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -5385,8 +5993,11 @@
       <c r="E190" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -5402,8 +6013,11 @@
       <c r="E191" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -5419,8 +6033,11 @@
       <c r="E192" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="G192" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -5436,8 +6053,11 @@
       <c r="E193" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="G193" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -5453,8 +6073,11 @@
       <c r="E194" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="G194" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -5470,8 +6093,11 @@
       <c r="E195" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -5487,8 +6113,11 @@
       <c r="E196" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -5504,8 +6133,11 @@
       <c r="E197" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -5521,8 +6153,11 @@
       <c r="E198" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="G198" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -5538,8 +6173,11 @@
       <c r="E199" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="G199" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -5555,8 +6193,11 @@
       <c r="E200" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="G200" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -5572,8 +6213,11 @@
       <c r="E201" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="G201" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -5589,8 +6233,11 @@
       <c r="E202" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="G202" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -5606,8 +6253,11 @@
       <c r="E203" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="G203" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -5623,8 +6273,11 @@
       <c r="E204" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="G204" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -5640,8 +6293,11 @@
       <c r="E205" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="G205" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -5657,8 +6313,11 @@
       <c r="E206" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="G206" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -5674,8 +6333,11 @@
       <c r="E207" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="G207" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -5691,8 +6353,11 @@
       <c r="E208" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="G208" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -5708,8 +6373,11 @@
       <c r="E209" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="G209" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -5725,8 +6393,11 @@
       <c r="E210" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="G210" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -5742,8 +6413,11 @@
       <c r="E211" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="G211" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -5759,8 +6433,11 @@
       <c r="E212" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="G212" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -5776,8 +6453,11 @@
       <c r="E213" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="G213" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -5793,8 +6473,11 @@
       <c r="E214" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="G214" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -5810,8 +6493,11 @@
       <c r="E215" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="G215" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -5827,8 +6513,11 @@
       <c r="E216" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="G216" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -5844,8 +6533,11 @@
       <c r="E217" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="G217" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -5861,8 +6553,11 @@
       <c r="E218" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="G218" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -5878,8 +6573,11 @@
       <c r="E219" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="G219" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5895,8 +6593,11 @@
       <c r="E220" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="G220" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>22</v>
       </c>
@@ -5912,8 +6613,11 @@
       <c r="E221" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="G221" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -5929,8 +6633,11 @@
       <c r="E222" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="G222" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>22</v>
       </c>
@@ -5946,8 +6653,11 @@
       <c r="E223" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="G223" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>22</v>
       </c>
@@ -5963,8 +6673,11 @@
       <c r="E224" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="G224" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -5980,8 +6693,11 @@
       <c r="E225" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="G225" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -5997,8 +6713,11 @@
       <c r="E226" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="G226" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -6014,8 +6733,11 @@
       <c r="E227" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="G227" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -6031,8 +6753,11 @@
       <c r="E228" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="G228" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>22</v>
       </c>
@@ -6048,8 +6773,11 @@
       <c r="E229" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="G229" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>22</v>
       </c>
@@ -6065,8 +6793,11 @@
       <c r="E230" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="G230" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -6082,8 +6813,11 @@
       <c r="E231" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="G231" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>22</v>
       </c>
@@ -6099,8 +6833,11 @@
       <c r="E232" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="G232" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -6116,8 +6853,11 @@
       <c r="E233" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="G233" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -6133,8 +6873,11 @@
       <c r="E234" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="G234" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -6150,8 +6893,11 @@
       <c r="E235" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="G235" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -6167,8 +6913,11 @@
       <c r="E236" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="G236" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -6184,8 +6933,11 @@
       <c r="E237" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="G237" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -6201,8 +6953,11 @@
       <c r="E238" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="G238" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -6218,8 +6973,11 @@
       <c r="E239" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="G239" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -6235,8 +6993,11 @@
       <c r="E240" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="G240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -6252,8 +7013,11 @@
       <c r="E241" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="G241" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -6269,8 +7033,11 @@
       <c r="E242" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="G242" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -6286,8 +7053,11 @@
       <c r="E243" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="G243" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -6303,8 +7073,11 @@
       <c r="E244" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="G244" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -6320,8 +7093,11 @@
       <c r="E245" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="G245" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -6337,8 +7113,11 @@
       <c r="E246" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="G246" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -6354,8 +7133,11 @@
       <c r="E247" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="G247" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -6371,8 +7153,11 @@
       <c r="E248" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="G248" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -6388,8 +7173,11 @@
       <c r="E249" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="G249" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -6405,8 +7193,11 @@
       <c r="E250" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="G250" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -6422,8 +7213,11 @@
       <c r="E251" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="G251" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -6439,8 +7233,11 @@
       <c r="E252" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="G252" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -6456,8 +7253,11 @@
       <c r="E253" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="G253" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -6473,8 +7273,11 @@
       <c r="E254" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="G254" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -6490,8 +7293,11 @@
       <c r="E255" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="G255" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -6507,8 +7313,11 @@
       <c r="E256" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="G256" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -6524,8 +7333,11 @@
       <c r="E257" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="G257" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -6541,8 +7353,11 @@
       <c r="E258" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="G258" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -6558,8 +7373,11 @@
       <c r="E259" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="G259" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -6575,8 +7393,11 @@
       <c r="E260" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="G260" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -6592,8 +7413,11 @@
       <c r="E261" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="G261" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -6609,8 +7433,11 @@
       <c r="E262" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="G262" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -6626,8 +7453,11 @@
       <c r="E263" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="G263" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -6643,8 +7473,11 @@
       <c r="E264" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="G264" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -6660,8 +7493,11 @@
       <c r="E265" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="G265" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>25</v>
       </c>
@@ -6677,8 +7513,11 @@
       <c r="E266" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="G266" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -6694,8 +7533,11 @@
       <c r="E267" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="G267" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -6711,8 +7553,11 @@
       <c r="E268" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="G268" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -6728,8 +7573,11 @@
       <c r="E269" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="G269" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -6745,8 +7593,11 @@
       <c r="E270" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="G270" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -6762,8 +7613,11 @@
       <c r="E271" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="G271" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>25</v>
       </c>
@@ -6778,6 +7632,9 @@
       </c>
       <c r="E272" t="s">
         <v>588</v>
+      </c>
+      <c r="G272" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
